--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$352</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$353</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W352"/>
+  <dimension ref="A1:W353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16045,10 +16045,10 @@
         <v>11570</v>
       </c>
       <c r="V265" s="0">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="W265" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row outlineLevel="0" r="266">
@@ -16110,7 +16110,7 @@
         <v>11628</v>
       </c>
       <c r="V266" s="0">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="W266" s="0">
         <v>69</v>
@@ -16175,7 +16175,7 @@
         <v>11717</v>
       </c>
       <c r="V267" s="0">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="W267" s="0">
         <v>66</v>
@@ -16240,7 +16240,7 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="W268" s="0">
         <v>62</v>
@@ -16305,7 +16305,7 @@
         <v>11950</v>
       </c>
       <c r="V269" s="0">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="W269" s="0">
         <v>45</v>
@@ -16370,7 +16370,7 @@
         <v>11974</v>
       </c>
       <c r="V270" s="0">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="W270" s="0">
         <v>80</v>
@@ -16435,7 +16435,7 @@
         <v>12005</v>
       </c>
       <c r="V271" s="0">
-        <v>5096</v>
+        <v>5097</v>
       </c>
       <c r="W271" s="0">
         <v>62</v>
@@ -16500,7 +16500,7 @@
         <v>12040</v>
       </c>
       <c r="V272" s="0">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="W272" s="0">
         <v>58</v>
@@ -16565,7 +16565,7 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="W273" s="0">
         <v>79</v>
@@ -16630,7 +16630,7 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="W274" s="0">
         <v>67</v>
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5367</v>
+        <v>5368</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5522</v>
+        <v>5523</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6123</v>
+        <v>6124</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6208</v>
+        <v>6209</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6284</v>
+        <v>6285</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6349</v>
+        <v>6350</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6436</v>
+        <v>6437</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,7 +17670,7 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6527</v>
+        <v>6528</v>
       </c>
       <c r="W290" s="0">
         <v>91</v>
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6622</v>
+        <v>6623</v>
       </c>
       <c r="W291" s="0">
         <v>95</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6715</v>
+        <v>6716</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6816</v>
+        <v>6817</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,7 +17930,7 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6919</v>
+        <v>6920</v>
       </c>
       <c r="W294" s="0">
         <v>103</v>
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7027</v>
+        <v>7028</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7228</v>
+        <v>7229</v>
       </c>
       <c r="W297" s="0">
         <v>103</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7308</v>
+        <v>7309</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7399</v>
+        <v>7400</v>
       </c>
       <c r="W299" s="0">
         <v>91</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7486</v>
+        <v>7487</v>
       </c>
       <c r="W300" s="0">
         <v>87</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7577</v>
+        <v>7578</v>
       </c>
       <c r="W301" s="0">
         <v>91</v>
@@ -18450,10 +18450,10 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7673</v>
+        <v>7675</v>
       </c>
       <c r="W302" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row outlineLevel="0" r="303">
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7772</v>
+        <v>7774</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7872</v>
+        <v>7874</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7970</v>
+        <v>7972</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8058</v>
+        <v>8060</v>
       </c>
       <c r="W306" s="0">
         <v>88</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8162</v>
+        <v>8164</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8269</v>
+        <v>8271</v>
       </c>
       <c r="W308" s="0">
         <v>107</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8384</v>
+        <v>8386</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8499</v>
+        <v>8501</v>
       </c>
       <c r="W310" s="0">
         <v>115</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8589</v>
+        <v>8591</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8705</v>
+        <v>8707</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8793</v>
+        <v>8795</v>
       </c>
       <c r="W313" s="0">
         <v>88</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8899</v>
+        <v>8901</v>
       </c>
       <c r="W314" s="0">
         <v>106</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>8998</v>
+        <v>9000</v>
       </c>
       <c r="W315" s="0">
         <v>99</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9095</v>
+        <v>9097</v>
       </c>
       <c r="W316" s="0">
         <v>97</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9170</v>
+        <v>9172</v>
       </c>
       <c r="W317" s="0">
         <v>75</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9275</v>
+        <v>9277</v>
       </c>
       <c r="W318" s="0">
         <v>105</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9366</v>
+        <v>9368</v>
       </c>
       <c r="W319" s="0">
         <v>91</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9453</v>
+        <v>9455</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9541</v>
+        <v>9543</v>
       </c>
       <c r="W321" s="0">
         <v>88</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9620</v>
+        <v>9622</v>
       </c>
       <c r="W322" s="0">
         <v>79</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9717</v>
+        <v>9719</v>
       </c>
       <c r="W323" s="0">
         <v>97</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9802</v>
+        <v>9804</v>
       </c>
       <c r="W324" s="0">
         <v>85</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9910</v>
+        <v>9912</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>9981</v>
+        <v>9983</v>
       </c>
       <c r="W326" s="0">
         <v>71</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10052</v>
+        <v>10054</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10134</v>
+        <v>10136</v>
       </c>
       <c r="W328" s="0">
         <v>82</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10206</v>
+        <v>10208</v>
       </c>
       <c r="W329" s="0">
         <v>72</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10288</v>
+        <v>10290</v>
       </c>
       <c r="W330" s="0">
         <v>82</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10347</v>
+        <v>10349</v>
       </c>
       <c r="W331" s="0">
         <v>59</v>
@@ -20400,10 +20400,10 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10415</v>
+        <v>10418</v>
       </c>
       <c r="W332" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row outlineLevel="0" r="333">
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10468</v>
+        <v>10471</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10518</v>
+        <v>10521</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10565</v>
+        <v>10568</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10613</v>
+        <v>10616</v>
       </c>
       <c r="W336" s="0">
         <v>48</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10654</v>
+        <v>10657</v>
       </c>
       <c r="W337" s="0">
         <v>41</v>
@@ -20790,10 +20790,10 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10691</v>
+        <v>10695</v>
       </c>
       <c r="W338" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row outlineLevel="0" r="339">
@@ -20855,10 +20855,10 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10735</v>
+        <v>10742</v>
       </c>
       <c r="W339" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row outlineLevel="0" r="340">
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10773</v>
+        <v>10786</v>
       </c>
       <c r="W340" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10826</v>
+        <v>10841</v>
       </c>
       <c r="W341" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10846</v>
+        <v>10864</v>
       </c>
       <c r="W342" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10874</v>
+        <v>10896</v>
       </c>
       <c r="W343" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10899</v>
+        <v>10925</v>
       </c>
       <c r="W344" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10917</v>
+        <v>10952</v>
       </c>
       <c r="W345" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>10928</v>
+        <v>10974</v>
       </c>
       <c r="W346" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>10940</v>
+        <v>10991</v>
       </c>
       <c r="W347" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>10950</v>
+        <v>11003</v>
       </c>
       <c r="W348" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>10959</v>
+        <v>11017</v>
       </c>
       <c r="W349" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>10965</v>
+        <v>11027</v>
       </c>
       <c r="W350" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>10973</v>
+        <v>11039</v>
       </c>
       <c r="W351" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,75 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>10974</v>
+        <v>11044</v>
       </c>
       <c r="W352" s="0">
-        <v>1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="353">
+      <c r="A353" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B353" s="0">
+        <v>761301</v>
+      </c>
+      <c r="C353" s="0">
+        <v>998</v>
+      </c>
+      <c r="D353" s="0">
+        <v>640214</v>
+      </c>
+      <c r="E353" s="0">
+        <v>607</v>
+      </c>
+      <c r="F353" s="0">
+        <v>121087</v>
+      </c>
+      <c r="G353" s="0">
+        <v>391</v>
+      </c>
+      <c r="H353" s="0">
+        <v>738527</v>
+      </c>
+      <c r="I353" s="0">
+        <v>5906425</v>
+      </c>
+      <c r="J353" s="0">
+        <v>6644952</v>
+      </c>
+      <c r="K353" s="0">
+        <v>10515</v>
+      </c>
+      <c r="L353" s="0">
+        <v>72</v>
+      </c>
+      <c r="M353" s="0">
+        <v>11057</v>
+      </c>
+      <c r="P353" s="0">
+        <v>-1236</v>
+      </c>
+      <c r="Q353" s="0">
+        <v>18453</v>
+      </c>
+      <c r="R353" s="0">
+        <v>2162</v>
+      </c>
+      <c r="S353" s="0">
+        <v>731791</v>
+      </c>
+      <c r="T353" s="0">
+        <v>55</v>
+      </c>
+      <c r="U353" s="0">
+        <v>18175</v>
+      </c>
+      <c r="V353" s="0">
+        <v>11047</v>
+      </c>
+      <c r="W353" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -22134,13 +22199,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3064</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3064</Url>
-      <Description>HJYU5V3E37X6-122305290-3064</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -22155,24 +22213,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3074</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3074</Url>
+      <Description>HJYU5V3E37X6-122305290-3074</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531AB141-8C55-4900-85B6-AFE1D1150D97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F07BCD-C678-481B-BFD0-68E1291AC24F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09124E30-92F0-461D-ABF6-583A7DCBC2C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC931860-7B1C-447E-B8D8-8CABBA4B1E03}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{948F2843-440C-44FA-BE77-72B2CF91098B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{613AF870-2ED7-4AE5-AD5D-8A9257EFFFB1}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C957455-9116-4787-9D44-B3B90F6BD588}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8346D8-E727-467A-8BD5-D402CE082E93}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$352</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$354</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W352"/>
+  <dimension ref="A1:W354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16045,10 +16045,10 @@
         <v>11570</v>
       </c>
       <c r="V265" s="0">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="W265" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row outlineLevel="0" r="266">
@@ -16110,7 +16110,7 @@
         <v>11628</v>
       </c>
       <c r="V266" s="0">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="W266" s="0">
         <v>69</v>
@@ -16175,7 +16175,7 @@
         <v>11717</v>
       </c>
       <c r="V267" s="0">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="W267" s="0">
         <v>66</v>
@@ -16240,7 +16240,7 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="W268" s="0">
         <v>62</v>
@@ -16305,7 +16305,7 @@
         <v>11950</v>
       </c>
       <c r="V269" s="0">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="W269" s="0">
         <v>45</v>
@@ -16370,7 +16370,7 @@
         <v>11974</v>
       </c>
       <c r="V270" s="0">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="W270" s="0">
         <v>80</v>
@@ -16435,7 +16435,7 @@
         <v>12005</v>
       </c>
       <c r="V271" s="0">
-        <v>5096</v>
+        <v>5097</v>
       </c>
       <c r="W271" s="0">
         <v>62</v>
@@ -16500,7 +16500,7 @@
         <v>12040</v>
       </c>
       <c r="V272" s="0">
-        <v>5154</v>
+        <v>5155</v>
       </c>
       <c r="W272" s="0">
         <v>58</v>
@@ -16565,7 +16565,7 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="W273" s="0">
         <v>79</v>
@@ -16630,7 +16630,7 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5300</v>
+        <v>5301</v>
       </c>
       <c r="W274" s="0">
         <v>67</v>
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5367</v>
+        <v>5368</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5439</v>
+        <v>5440</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5522</v>
+        <v>5523</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5600</v>
+        <v>5601</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5836</v>
+        <v>5837</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5898</v>
+        <v>5899</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6043</v>
+        <v>6044</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6123</v>
+        <v>6124</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6208</v>
+        <v>6209</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6284</v>
+        <v>6285</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6349</v>
+        <v>6350</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6436</v>
+        <v>6437</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,7 +17670,7 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6527</v>
+        <v>6528</v>
       </c>
       <c r="W290" s="0">
         <v>91</v>
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6622</v>
+        <v>6623</v>
       </c>
       <c r="W291" s="0">
         <v>95</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6715</v>
+        <v>6716</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6816</v>
+        <v>6817</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,7 +17930,7 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6919</v>
+        <v>6920</v>
       </c>
       <c r="W294" s="0">
         <v>103</v>
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7027</v>
+        <v>7028</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,10 +18125,10 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7228</v>
+        <v>7230</v>
       </c>
       <c r="W297" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row outlineLevel="0" r="298">
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7308</v>
+        <v>7310</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7399</v>
+        <v>7401</v>
       </c>
       <c r="W299" s="0">
         <v>91</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7486</v>
+        <v>7488</v>
       </c>
       <c r="W300" s="0">
         <v>87</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7577</v>
+        <v>7579</v>
       </c>
       <c r="W301" s="0">
         <v>91</v>
@@ -18450,10 +18450,10 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7673</v>
+        <v>7676</v>
       </c>
       <c r="W302" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row outlineLevel="0" r="303">
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7772</v>
+        <v>7775</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7872</v>
+        <v>7875</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7970</v>
+        <v>7973</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8058</v>
+        <v>8061</v>
       </c>
       <c r="W306" s="0">
         <v>88</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8162</v>
+        <v>8165</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8269</v>
+        <v>8272</v>
       </c>
       <c r="W308" s="0">
         <v>107</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8384</v>
+        <v>8387</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8499</v>
+        <v>8502</v>
       </c>
       <c r="W310" s="0">
         <v>115</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8589</v>
+        <v>8592</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8705</v>
+        <v>8708</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8793</v>
+        <v>8796</v>
       </c>
       <c r="W313" s="0">
         <v>88</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8899</v>
+        <v>8902</v>
       </c>
       <c r="W314" s="0">
         <v>106</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>8998</v>
+        <v>9001</v>
       </c>
       <c r="W315" s="0">
         <v>99</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9095</v>
+        <v>9098</v>
       </c>
       <c r="W316" s="0">
         <v>97</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9170</v>
+        <v>9173</v>
       </c>
       <c r="W317" s="0">
         <v>75</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9275</v>
+        <v>9278</v>
       </c>
       <c r="W318" s="0">
         <v>105</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9366</v>
+        <v>9369</v>
       </c>
       <c r="W319" s="0">
         <v>91</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9453</v>
+        <v>9456</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9541</v>
+        <v>9544</v>
       </c>
       <c r="W321" s="0">
         <v>88</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9620</v>
+        <v>9623</v>
       </c>
       <c r="W322" s="0">
         <v>79</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9717</v>
+        <v>9720</v>
       </c>
       <c r="W323" s="0">
         <v>97</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9802</v>
+        <v>9805</v>
       </c>
       <c r="W324" s="0">
         <v>85</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9910</v>
+        <v>9913</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>9981</v>
+        <v>9984</v>
       </c>
       <c r="W326" s="0">
         <v>71</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10052</v>
+        <v>10055</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10134</v>
+        <v>10137</v>
       </c>
       <c r="W328" s="0">
         <v>82</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10206</v>
+        <v>10209</v>
       </c>
       <c r="W329" s="0">
         <v>72</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10288</v>
+        <v>10291</v>
       </c>
       <c r="W330" s="0">
         <v>82</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10347</v>
+        <v>10350</v>
       </c>
       <c r="W331" s="0">
         <v>59</v>
@@ -20400,10 +20400,10 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10415</v>
+        <v>10419</v>
       </c>
       <c r="W332" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row outlineLevel="0" r="333">
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10468</v>
+        <v>10472</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10518</v>
+        <v>10522</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10565</v>
+        <v>10569</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10613</v>
+        <v>10617</v>
       </c>
       <c r="W336" s="0">
         <v>48</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10654</v>
+        <v>10658</v>
       </c>
       <c r="W337" s="0">
         <v>41</v>
@@ -20790,10 +20790,10 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10691</v>
+        <v>10696</v>
       </c>
       <c r="W338" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row outlineLevel="0" r="339">
@@ -20855,10 +20855,10 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10735</v>
+        <v>10743</v>
       </c>
       <c r="W339" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row outlineLevel="0" r="340">
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10773</v>
+        <v>10787</v>
       </c>
       <c r="W340" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10826</v>
+        <v>10842</v>
       </c>
       <c r="W341" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10846</v>
+        <v>10865</v>
       </c>
       <c r="W342" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10874</v>
+        <v>10897</v>
       </c>
       <c r="W343" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10899</v>
+        <v>10926</v>
       </c>
       <c r="W344" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10917</v>
+        <v>10953</v>
       </c>
       <c r="W345" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>10928</v>
+        <v>10975</v>
       </c>
       <c r="W346" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>10940</v>
+        <v>10992</v>
       </c>
       <c r="W347" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>10950</v>
+        <v>11004</v>
       </c>
       <c r="W348" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>10959</v>
+        <v>11018</v>
       </c>
       <c r="W349" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>10965</v>
+        <v>11031</v>
       </c>
       <c r="W350" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>10973</v>
+        <v>11044</v>
       </c>
       <c r="W351" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,140 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>10974</v>
+        <v>11051</v>
       </c>
       <c r="W352" s="0">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="353">
+      <c r="A353" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B353" s="0">
+        <v>761301</v>
+      </c>
+      <c r="C353" s="0">
+        <v>998</v>
+      </c>
+      <c r="D353" s="0">
+        <v>640214</v>
+      </c>
+      <c r="E353" s="0">
+        <v>607</v>
+      </c>
+      <c r="F353" s="0">
+        <v>121087</v>
+      </c>
+      <c r="G353" s="0">
+        <v>391</v>
+      </c>
+      <c r="H353" s="0">
+        <v>738527</v>
+      </c>
+      <c r="I353" s="0">
+        <v>5906425</v>
+      </c>
+      <c r="J353" s="0">
+        <v>6644952</v>
+      </c>
+      <c r="K353" s="0">
+        <v>10515</v>
+      </c>
+      <c r="L353" s="0">
+        <v>72</v>
+      </c>
+      <c r="M353" s="0">
+        <v>11057</v>
+      </c>
+      <c r="P353" s="0">
+        <v>-1236</v>
+      </c>
+      <c r="Q353" s="0">
+        <v>18453</v>
+      </c>
+      <c r="R353" s="0">
+        <v>2162</v>
+      </c>
+      <c r="S353" s="0">
+        <v>731791</v>
+      </c>
+      <c r="T353" s="0">
+        <v>55</v>
+      </c>
+      <c r="U353" s="0">
+        <v>18175</v>
+      </c>
+      <c r="V353" s="0">
+        <v>11054</v>
+      </c>
+      <c r="W353" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="354">
+      <c r="A354" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B354" s="0">
+        <v>762673</v>
+      </c>
+      <c r="C354" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D354" s="0">
+        <v>641115</v>
+      </c>
+      <c r="E354" s="0">
+        <v>901</v>
+      </c>
+      <c r="F354" s="0">
+        <v>121558</v>
+      </c>
+      <c r="G354" s="0">
+        <v>471</v>
+      </c>
+      <c r="H354" s="0">
+        <v>739517</v>
+      </c>
+      <c r="I354" s="0">
+        <v>5914969</v>
+      </c>
+      <c r="J354" s="0">
+        <v>6654486</v>
+      </c>
+      <c r="K354" s="0">
+        <v>9534</v>
+      </c>
+      <c r="L354" s="0">
+        <v>7</v>
+      </c>
+      <c r="M354" s="0">
+        <v>11064</v>
+      </c>
+      <c r="P354" s="0">
+        <v>-996</v>
+      </c>
+      <c r="Q354" s="0">
+        <v>17457</v>
+      </c>
+      <c r="R354" s="0">
+        <v>2361</v>
+      </c>
+      <c r="S354" s="0">
+        <v>734152</v>
+      </c>
+      <c r="T354" s="0">
+        <v>60</v>
+      </c>
+      <c r="U354" s="0">
+        <v>18235</v>
+      </c>
+      <c r="V354" s="0">
+        <v>11054</v>
+      </c>
+      <c r="W354" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22135,11 +22265,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3064</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3083</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3064</Url>
-      <Description>HJYU5V3E37X6-122305290-3064</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3083</Url>
+      <Description>HJYU5V3E37X6-122305290-3083</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22162,17 +22292,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531AB141-8C55-4900-85B6-AFE1D1150D97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4BFB5D7-4BE1-44B4-A778-24F4C85A3007}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09124E30-92F0-461D-ABF6-583A7DCBC2C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5A1B2D-8052-4FDF-A127-3A53833C35C7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{948F2843-440C-44FA-BE77-72B2CF91098B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6B8C57-9D8A-4CE8-BB2F-A5825DE51B8A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C957455-9116-4787-9D44-B3B90F6BD588}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB45B66-A91B-4B27-A38B-55BD5FEB57BE}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$354</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$355</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W354"/>
+  <dimension ref="A1:W355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18710,10 +18710,10 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8061</v>
+        <v>8062</v>
       </c>
       <c r="W306" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row outlineLevel="0" r="307">
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8165</v>
+        <v>8166</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,10 +18840,10 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8272</v>
+        <v>8274</v>
       </c>
       <c r="W308" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row outlineLevel="0" r="309">
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8387</v>
+        <v>8389</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,10 +18970,10 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8502</v>
+        <v>8505</v>
       </c>
       <c r="W310" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row outlineLevel="0" r="311">
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8592</v>
+        <v>8595</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8708</v>
+        <v>8711</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8796</v>
+        <v>8799</v>
       </c>
       <c r="W313" s="0">
         <v>88</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8902</v>
+        <v>8905</v>
       </c>
       <c r="W314" s="0">
         <v>106</v>
@@ -19295,10 +19295,10 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9001</v>
+        <v>9006</v>
       </c>
       <c r="W315" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row outlineLevel="0" r="316">
@@ -19360,10 +19360,10 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9098</v>
+        <v>9104</v>
       </c>
       <c r="W316" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row outlineLevel="0" r="317">
@@ -19425,10 +19425,10 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9173</v>
+        <v>9181</v>
       </c>
       <c r="W317" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row outlineLevel="0" r="318">
@@ -19490,10 +19490,10 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9278</v>
+        <v>9287</v>
       </c>
       <c r="W318" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row outlineLevel="0" r="319">
@@ -19555,10 +19555,10 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9369</v>
+        <v>9379</v>
       </c>
       <c r="W319" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row outlineLevel="0" r="320">
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9456</v>
+        <v>9466</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,10 +19685,10 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9544</v>
+        <v>9556</v>
       </c>
       <c r="W321" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row outlineLevel="0" r="322">
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9623</v>
+        <v>9635</v>
       </c>
       <c r="W322" s="0">
         <v>79</v>
@@ -19815,10 +19815,10 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9720</v>
+        <v>9731</v>
       </c>
       <c r="W323" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
@@ -19880,10 +19880,10 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9805</v>
+        <v>9817</v>
       </c>
       <c r="W324" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row outlineLevel="0" r="325">
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9913</v>
+        <v>9925</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,10 +20010,10 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>9984</v>
+        <v>9999</v>
       </c>
       <c r="W326" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row outlineLevel="0" r="327">
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10055</v>
+        <v>10070</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,10 +20140,10 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10137</v>
+        <v>10153</v>
       </c>
       <c r="W328" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row outlineLevel="0" r="329">
@@ -20205,10 +20205,10 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10209</v>
+        <v>10227</v>
       </c>
       <c r="W329" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row outlineLevel="0" r="330">
@@ -20270,10 +20270,10 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10291</v>
+        <v>10311</v>
       </c>
       <c r="W330" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row outlineLevel="0" r="331">
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10350</v>
+        <v>10370</v>
       </c>
       <c r="W331" s="0">
         <v>59</v>
@@ -20400,10 +20400,10 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10419</v>
+        <v>10441</v>
       </c>
       <c r="W332" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row outlineLevel="0" r="333">
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10472</v>
+        <v>10494</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10522</v>
+        <v>10544</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,10 +20595,10 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10569</v>
+        <v>10590</v>
       </c>
       <c r="W335" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row outlineLevel="0" r="336">
@@ -20660,10 +20660,10 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10617</v>
+        <v>10641</v>
       </c>
       <c r="W336" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row outlineLevel="0" r="337">
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10658</v>
+        <v>10682</v>
       </c>
       <c r="W337" s="0">
         <v>41</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10696</v>
+        <v>10720</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,10 +20855,10 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10743</v>
+        <v>10769</v>
       </c>
       <c r="W339" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row outlineLevel="0" r="340">
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10787</v>
+        <v>10814</v>
       </c>
       <c r="W340" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10842</v>
+        <v>10869</v>
       </c>
       <c r="W341" s="0">
         <v>55</v>
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10865</v>
+        <v>10893</v>
       </c>
       <c r="W342" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10897</v>
+        <v>10925</v>
       </c>
       <c r="W343" s="0">
         <v>32</v>
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10926</v>
+        <v>10955</v>
       </c>
       <c r="W344" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10953</v>
+        <v>10982</v>
       </c>
       <c r="W345" s="0">
         <v>27</v>
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>10975</v>
+        <v>11006</v>
       </c>
       <c r="W346" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>10992</v>
+        <v>11024</v>
       </c>
       <c r="W347" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11004</v>
+        <v>11041</v>
       </c>
       <c r="W348" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11018</v>
+        <v>11056</v>
       </c>
       <c r="W349" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11031</v>
+        <v>11070</v>
       </c>
       <c r="W350" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11044</v>
+        <v>11084</v>
       </c>
       <c r="W351" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11051</v>
+        <v>11092</v>
       </c>
       <c r="W352" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11054</v>
+        <v>11100</v>
       </c>
       <c r="W353" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,9 +21830,74 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11054</v>
+        <v>11106</v>
       </c>
       <c r="W354" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="355">
+      <c r="A355" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B355" s="0">
+        <v>764008</v>
+      </c>
+      <c r="C355" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D355" s="0">
+        <v>641998</v>
+      </c>
+      <c r="E355" s="0">
+        <v>883</v>
+      </c>
+      <c r="F355" s="0">
+        <v>122010</v>
+      </c>
+      <c r="G355" s="0">
+        <v>452</v>
+      </c>
+      <c r="H355" s="0">
+        <v>740519</v>
+      </c>
+      <c r="I355" s="0">
+        <v>5924910</v>
+      </c>
+      <c r="J355" s="0">
+        <v>6665429</v>
+      </c>
+      <c r="K355" s="0">
+        <v>10943</v>
+      </c>
+      <c r="L355" s="0">
+        <v>51</v>
+      </c>
+      <c r="M355" s="0">
+        <v>11115</v>
+      </c>
+      <c r="P355" s="0">
+        <v>-864</v>
+      </c>
+      <c r="Q355" s="0">
+        <v>16593</v>
+      </c>
+      <c r="R355" s="0">
+        <v>2148</v>
+      </c>
+      <c r="S355" s="0">
+        <v>736300</v>
+      </c>
+      <c r="T355" s="0">
+        <v>32</v>
+      </c>
+      <c r="U355" s="0">
+        <v>18267</v>
+      </c>
+      <c r="V355" s="0">
+        <v>11106</v>
+      </c>
+      <c r="W355" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22265,11 +22330,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3083</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3097</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3083</Url>
-      <Description>HJYU5V3E37X6-122305290-3083</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3097</Url>
+      <Description>HJYU5V3E37X6-122305290-3097</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22292,17 +22357,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4BFB5D7-4BE1-44B4-A778-24F4C85A3007}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E77FB7-932C-437F-98E8-4572D8E9830F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5A1B2D-8052-4FDF-A127-3A53833C35C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8895FA2C-6F34-4BB1-80F0-E962BBCF7399}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6B8C57-9D8A-4CE8-BB2F-A5825DE51B8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47C88F2-AA9B-4B12-901D-61120709C6C6}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB45B66-A91B-4B27-A38B-55BD5FEB57BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32BE2C1-9DE4-4605-AD06-59047ADF7820}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$354</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$356</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W354"/>
+  <dimension ref="A1:W356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18710,10 +18710,10 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8061</v>
+        <v>8062</v>
       </c>
       <c r="W306" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row outlineLevel="0" r="307">
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8165</v>
+        <v>8166</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,10 +18840,10 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8272</v>
+        <v>8274</v>
       </c>
       <c r="W308" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row outlineLevel="0" r="309">
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8387</v>
+        <v>8389</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,10 +18970,10 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8502</v>
+        <v>8505</v>
       </c>
       <c r="W310" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row outlineLevel="0" r="311">
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8592</v>
+        <v>8595</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8708</v>
+        <v>8711</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8796</v>
+        <v>8799</v>
       </c>
       <c r="W313" s="0">
         <v>88</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8902</v>
+        <v>8905</v>
       </c>
       <c r="W314" s="0">
         <v>106</v>
@@ -19295,10 +19295,10 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9001</v>
+        <v>9006</v>
       </c>
       <c r="W315" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row outlineLevel="0" r="316">
@@ -19360,10 +19360,10 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9098</v>
+        <v>9104</v>
       </c>
       <c r="W316" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row outlineLevel="0" r="317">
@@ -19425,10 +19425,10 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9173</v>
+        <v>9181</v>
       </c>
       <c r="W317" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row outlineLevel="0" r="318">
@@ -19490,10 +19490,10 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9278</v>
+        <v>9287</v>
       </c>
       <c r="W318" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row outlineLevel="0" r="319">
@@ -19555,10 +19555,10 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9369</v>
+        <v>9379</v>
       </c>
       <c r="W319" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row outlineLevel="0" r="320">
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9456</v>
+        <v>9466</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,10 +19685,10 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9544</v>
+        <v>9556</v>
       </c>
       <c r="W321" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row outlineLevel="0" r="322">
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9623</v>
+        <v>9635</v>
       </c>
       <c r="W322" s="0">
         <v>79</v>
@@ -19815,10 +19815,10 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9720</v>
+        <v>9731</v>
       </c>
       <c r="W323" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
@@ -19880,10 +19880,10 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9805</v>
+        <v>9817</v>
       </c>
       <c r="W324" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row outlineLevel="0" r="325">
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9913</v>
+        <v>9925</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,10 +20010,10 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>9984</v>
+        <v>9999</v>
       </c>
       <c r="W326" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row outlineLevel="0" r="327">
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10055</v>
+        <v>10070</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,10 +20140,10 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10137</v>
+        <v>10153</v>
       </c>
       <c r="W328" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row outlineLevel="0" r="329">
@@ -20205,10 +20205,10 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10209</v>
+        <v>10228</v>
       </c>
       <c r="W329" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row outlineLevel="0" r="330">
@@ -20270,10 +20270,10 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10291</v>
+        <v>10311</v>
       </c>
       <c r="W330" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row outlineLevel="0" r="331">
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10350</v>
+        <v>10370</v>
       </c>
       <c r="W331" s="0">
         <v>59</v>
@@ -20400,10 +20400,10 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10419</v>
+        <v>10441</v>
       </c>
       <c r="W332" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row outlineLevel="0" r="333">
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10472</v>
+        <v>10494</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10522</v>
+        <v>10544</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10569</v>
+        <v>10591</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,10 +20660,10 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10617</v>
+        <v>10642</v>
       </c>
       <c r="W336" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row outlineLevel="0" r="337">
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10658</v>
+        <v>10683</v>
       </c>
       <c r="W337" s="0">
         <v>41</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10696</v>
+        <v>10721</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,10 +20855,10 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10743</v>
+        <v>10770</v>
       </c>
       <c r="W339" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row outlineLevel="0" r="340">
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10787</v>
+        <v>10815</v>
       </c>
       <c r="W340" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10842</v>
+        <v>10871</v>
       </c>
       <c r="W341" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10865</v>
+        <v>10895</v>
       </c>
       <c r="W342" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10897</v>
+        <v>10929</v>
       </c>
       <c r="W343" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10926</v>
+        <v>10961</v>
       </c>
       <c r="W344" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10953</v>
+        <v>10988</v>
       </c>
       <c r="W345" s="0">
         <v>27</v>
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>10975</v>
+        <v>11013</v>
       </c>
       <c r="W346" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>10992</v>
+        <v>11033</v>
       </c>
       <c r="W347" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11004</v>
+        <v>11050</v>
       </c>
       <c r="W348" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11018</v>
+        <v>11065</v>
       </c>
       <c r="W349" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11031</v>
+        <v>11080</v>
       </c>
       <c r="W350" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11044</v>
+        <v>11097</v>
       </c>
       <c r="W351" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11051</v>
+        <v>11108</v>
       </c>
       <c r="W352" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11054</v>
+        <v>11118</v>
       </c>
       <c r="W353" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,9 +21830,139 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11054</v>
+        <v>11124</v>
       </c>
       <c r="W354" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="355">
+      <c r="A355" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B355" s="0">
+        <v>764008</v>
+      </c>
+      <c r="C355" s="0">
+        <v>1335</v>
+      </c>
+      <c r="D355" s="0">
+        <v>641998</v>
+      </c>
+      <c r="E355" s="0">
+        <v>883</v>
+      </c>
+      <c r="F355" s="0">
+        <v>122010</v>
+      </c>
+      <c r="G355" s="0">
+        <v>452</v>
+      </c>
+      <c r="H355" s="0">
+        <v>740519</v>
+      </c>
+      <c r="I355" s="0">
+        <v>5924910</v>
+      </c>
+      <c r="J355" s="0">
+        <v>6665429</v>
+      </c>
+      <c r="K355" s="0">
+        <v>10943</v>
+      </c>
+      <c r="L355" s="0">
+        <v>51</v>
+      </c>
+      <c r="M355" s="0">
+        <v>11115</v>
+      </c>
+      <c r="P355" s="0">
+        <v>-864</v>
+      </c>
+      <c r="Q355" s="0">
+        <v>16593</v>
+      </c>
+      <c r="R355" s="0">
+        <v>2148</v>
+      </c>
+      <c r="S355" s="0">
+        <v>736300</v>
+      </c>
+      <c r="T355" s="0">
+        <v>32</v>
+      </c>
+      <c r="U355" s="0">
+        <v>18267</v>
+      </c>
+      <c r="V355" s="0">
+        <v>11124</v>
+      </c>
+      <c r="W355" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="356">
+      <c r="A356" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B356" s="0">
+        <v>765137</v>
+      </c>
+      <c r="C356" s="0">
+        <v>1129</v>
+      </c>
+      <c r="D356" s="0">
+        <v>642673</v>
+      </c>
+      <c r="E356" s="0">
+        <v>675</v>
+      </c>
+      <c r="F356" s="0">
+        <v>122464</v>
+      </c>
+      <c r="G356" s="0">
+        <v>454</v>
+      </c>
+      <c r="H356" s="0">
+        <v>741254</v>
+      </c>
+      <c r="I356" s="0">
+        <v>5933237</v>
+      </c>
+      <c r="J356" s="0">
+        <v>6674491</v>
+      </c>
+      <c r="K356" s="0">
+        <v>9062</v>
+      </c>
+      <c r="L356" s="0">
+        <v>18</v>
+      </c>
+      <c r="M356" s="0">
+        <v>11133</v>
+      </c>
+      <c r="P356" s="0">
+        <v>-224</v>
+      </c>
+      <c r="Q356" s="0">
+        <v>16369</v>
+      </c>
+      <c r="R356" s="0">
+        <v>1335</v>
+      </c>
+      <c r="S356" s="0">
+        <v>737635</v>
+      </c>
+      <c r="T356" s="0">
+        <v>17</v>
+      </c>
+      <c r="U356" s="0">
+        <v>18284</v>
+      </c>
+      <c r="V356" s="0">
+        <v>11124</v>
+      </c>
+      <c r="W356" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22265,11 +22395,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3083</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3105</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3083</Url>
-      <Description>HJYU5V3E37X6-122305290-3083</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3105</Url>
+      <Description>HJYU5V3E37X6-122305290-3105</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22292,17 +22422,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4BFB5D7-4BE1-44B4-A778-24F4C85A3007}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F81B2D4A-10BF-4438-AECA-15434DFEC8C6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5A1B2D-8052-4FDF-A127-3A53833C35C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63CB8EB7-534C-4709-BA50-383ABCFB2ED2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6B8C57-9D8A-4CE8-BB2F-A5825DE51B8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A100FEE7-B806-4C5D-B7A0-C226072CB152}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB45B66-A91B-4B27-A38B-55BD5FEB57BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC33426-859C-4258-9F5F-86AABCE820AB}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$356</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$357</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W356"/>
+  <dimension ref="A1:W357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19815,10 +19815,10 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9731</v>
+        <v>9732</v>
       </c>
       <c r="W323" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9817</v>
+        <v>9818</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9925</v>
+        <v>9926</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="W326" s="0">
         <v>74</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10070</v>
+        <v>10071</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10153</v>
+        <v>10154</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10228</v>
+        <v>10229</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10311</v>
+        <v>10312</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10370</v>
+        <v>10371</v>
       </c>
       <c r="W331" s="0">
         <v>59</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10441</v>
+        <v>10442</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10494</v>
+        <v>10495</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10544</v>
+        <v>10545</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10591</v>
+        <v>10592</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10642</v>
+        <v>10643</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10683</v>
+        <v>10684</v>
       </c>
       <c r="W337" s="0">
         <v>41</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10721</v>
+        <v>10722</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10770</v>
+        <v>10771</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10815</v>
+        <v>10817</v>
       </c>
       <c r="W340" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10871</v>
+        <v>10873</v>
       </c>
       <c r="W341" s="0">
         <v>56</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10895</v>
+        <v>10897</v>
       </c>
       <c r="W342" s="0">
         <v>24</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10929</v>
+        <v>10931</v>
       </c>
       <c r="W343" s="0">
         <v>34</v>
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10961</v>
+        <v>10963</v>
       </c>
       <c r="W344" s="0">
         <v>32</v>
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10988</v>
+        <v>10990</v>
       </c>
       <c r="W345" s="0">
         <v>27</v>
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11013</v>
+        <v>11017</v>
       </c>
       <c r="W346" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11033</v>
+        <v>11037</v>
       </c>
       <c r="W347" s="0">
         <v>20</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11050</v>
+        <v>11054</v>
       </c>
       <c r="W348" s="0">
         <v>17</v>
@@ -21505,7 +21505,7 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11065</v>
+        <v>11069</v>
       </c>
       <c r="W349" s="0">
         <v>15</v>
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11080</v>
+        <v>11084</v>
       </c>
       <c r="W350" s="0">
         <v>15</v>
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11097</v>
+        <v>11101</v>
       </c>
       <c r="W351" s="0">
         <v>17</v>
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11108</v>
+        <v>11112</v>
       </c>
       <c r="W352" s="0">
         <v>11</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11118</v>
+        <v>11122</v>
       </c>
       <c r="W353" s="0">
         <v>10</v>
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11124</v>
+        <v>11131</v>
       </c>
       <c r="W354" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11124</v>
+        <v>11136</v>
       </c>
       <c r="W355" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,9 +21960,74 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11124</v>
+        <v>11144</v>
       </c>
       <c r="W356" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="357">
+      <c r="A357" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B357" s="0">
+        <v>766089</v>
+      </c>
+      <c r="C357" s="0">
+        <v>952</v>
+      </c>
+      <c r="D357" s="0">
+        <v>643282</v>
+      </c>
+      <c r="E357" s="0">
+        <v>609</v>
+      </c>
+      <c r="F357" s="0">
+        <v>122807</v>
+      </c>
+      <c r="G357" s="0">
+        <v>343</v>
+      </c>
+      <c r="H357" s="0">
+        <v>741941</v>
+      </c>
+      <c r="I357" s="0">
+        <v>5939459</v>
+      </c>
+      <c r="J357" s="0">
+        <v>6681400</v>
+      </c>
+      <c r="K357" s="0">
+        <v>6909</v>
+      </c>
+      <c r="L357" s="0">
+        <v>20</v>
+      </c>
+      <c r="M357" s="0">
+        <v>11153</v>
+      </c>
+      <c r="P357" s="0">
+        <v>-164</v>
+      </c>
+      <c r="Q357" s="0">
+        <v>16205</v>
+      </c>
+      <c r="R357" s="0">
+        <v>1096</v>
+      </c>
+      <c r="S357" s="0">
+        <v>738731</v>
+      </c>
+      <c r="T357" s="0">
+        <v>27</v>
+      </c>
+      <c r="U357" s="0">
+        <v>18311</v>
+      </c>
+      <c r="V357" s="0">
+        <v>11144</v>
+      </c>
+      <c r="W357" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22395,11 +22460,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3105</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3116</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3105</Url>
-      <Description>HJYU5V3E37X6-122305290-3105</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3116</Url>
+      <Description>HJYU5V3E37X6-122305290-3116</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22422,17 +22487,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F81B2D4A-10BF-4438-AECA-15434DFEC8C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26305C0-3AA8-49FC-A60F-3442AF575266}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63CB8EB7-534C-4709-BA50-383ABCFB2ED2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5882BEAD-08B8-416A-B1E3-E2BB123B86B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A100FEE7-B806-4C5D-B7A0-C226072CB152}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594598AB-D8FE-4CB1-A229-9E90F1868F79}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CC33426-859C-4258-9F5F-86AABCE820AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD49D9EE-4FDF-4F27-88AD-28C7C6F08CF5}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$357</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$358</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W357"/>
+  <dimension ref="A1:W358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15070,10 +15070,10 @@
         <v>10645</v>
       </c>
       <c r="V250" s="0">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="W250" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="251">
@@ -15135,7 +15135,7 @@
         <v>10678</v>
       </c>
       <c r="V251" s="0">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="W251" s="0">
         <v>39</v>
@@ -15200,7 +15200,7 @@
         <v>10732</v>
       </c>
       <c r="V252" s="0">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="W252" s="0">
         <v>42</v>
@@ -15265,7 +15265,7 @@
         <v>10813</v>
       </c>
       <c r="V253" s="0">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="W253" s="0">
         <v>50</v>
@@ -15330,7 +15330,7 @@
         <v>10895</v>
       </c>
       <c r="V254" s="0">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="W254" s="0">
         <v>50</v>
@@ -15395,7 +15395,7 @@
         <v>10950</v>
       </c>
       <c r="V255" s="0">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="W255" s="0">
         <v>36</v>
@@ -15460,7 +15460,7 @@
         <v>11055</v>
       </c>
       <c r="V256" s="0">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="W256" s="0">
         <v>43</v>
@@ -15525,7 +15525,7 @@
         <v>11116</v>
       </c>
       <c r="V257" s="0">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="W257" s="0">
         <v>60</v>
@@ -15590,7 +15590,7 @@
         <v>11141</v>
       </c>
       <c r="V258" s="0">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="W258" s="0">
         <v>48</v>
@@ -15655,7 +15655,7 @@
         <v>11201</v>
       </c>
       <c r="V259" s="0">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="W259" s="0">
         <v>51</v>
@@ -15720,7 +15720,7 @@
         <v>11255</v>
       </c>
       <c r="V260" s="0">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="W260" s="0">
         <v>68</v>
@@ -15785,7 +15785,7 @@
         <v>11342</v>
       </c>
       <c r="V261" s="0">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="W261" s="0">
         <v>43</v>
@@ -15850,7 +15850,7 @@
         <v>11422</v>
       </c>
       <c r="V262" s="0">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="W262" s="0">
         <v>57</v>
@@ -15915,7 +15915,7 @@
         <v>11502</v>
       </c>
       <c r="V263" s="0">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="W263" s="0">
         <v>67</v>
@@ -15980,7 +15980,7 @@
         <v>11539</v>
       </c>
       <c r="V264" s="0">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="W264" s="0">
         <v>74</v>
@@ -16045,7 +16045,7 @@
         <v>11570</v>
       </c>
       <c r="V265" s="0">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="W265" s="0">
         <v>59</v>
@@ -16110,7 +16110,7 @@
         <v>11628</v>
       </c>
       <c r="V266" s="0">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="W266" s="0">
         <v>69</v>
@@ -16175,7 +16175,7 @@
         <v>11717</v>
       </c>
       <c r="V267" s="0">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="W267" s="0">
         <v>66</v>
@@ -16240,7 +16240,7 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="W268" s="0">
         <v>62</v>
@@ -16305,7 +16305,7 @@
         <v>11950</v>
       </c>
       <c r="V269" s="0">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="W269" s="0">
         <v>45</v>
@@ -16370,7 +16370,7 @@
         <v>11974</v>
       </c>
       <c r="V270" s="0">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="W270" s="0">
         <v>80</v>
@@ -16435,7 +16435,7 @@
         <v>12005</v>
       </c>
       <c r="V271" s="0">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="W271" s="0">
         <v>62</v>
@@ -16500,7 +16500,7 @@
         <v>12040</v>
       </c>
       <c r="V272" s="0">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="W272" s="0">
         <v>58</v>
@@ -16565,7 +16565,7 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="W273" s="0">
         <v>79</v>
@@ -16630,7 +16630,7 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="W274" s="0">
         <v>67</v>
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5975</v>
+        <v>5974</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6044</v>
+        <v>6043</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6124</v>
+        <v>6123</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6209</v>
+        <v>6208</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6285</v>
+        <v>6284</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6350</v>
+        <v>6349</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,7 +17670,7 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="W290" s="0">
         <v>91</v>
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6623</v>
+        <v>6622</v>
       </c>
       <c r="W291" s="0">
         <v>95</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,7 +17930,7 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="W294" s="0">
         <v>103</v>
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="W297" s="0">
         <v>104</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7401</v>
+        <v>7400</v>
       </c>
       <c r="W299" s="0">
         <v>91</v>
@@ -18323,7 +18323,7 @@
         <v>7488</v>
       </c>
       <c r="W300" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row outlineLevel="0" r="301">
@@ -18450,10 +18450,10 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7676</v>
+        <v>7677</v>
       </c>
       <c r="W302" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row outlineLevel="0" r="303">
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7775</v>
+        <v>7776</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7875</v>
+        <v>7876</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7973</v>
+        <v>7974</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18713,7 +18713,7 @@
         <v>8062</v>
       </c>
       <c r="W306" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row outlineLevel="0" r="307">
@@ -19230,10 +19230,10 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8905</v>
+        <v>8906</v>
       </c>
       <c r="W314" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row outlineLevel="0" r="315">
@@ -19295,10 +19295,10 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9006</v>
+        <v>9008</v>
       </c>
       <c r="W315" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row outlineLevel="0" r="316">
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9104</v>
+        <v>9106</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9181</v>
+        <v>9183</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9287</v>
+        <v>9289</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9379</v>
+        <v>9381</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9466</v>
+        <v>9468</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9556</v>
+        <v>9558</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9635</v>
+        <v>9637</v>
       </c>
       <c r="W322" s="0">
         <v>79</v>
@@ -19815,10 +19815,10 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9732</v>
+        <v>9735</v>
       </c>
       <c r="W323" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9818</v>
+        <v>9821</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9926</v>
+        <v>9929</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="W326" s="0">
         <v>74</v>
@@ -20075,10 +20075,10 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10071</v>
+        <v>10073</v>
       </c>
       <c r="W327" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row outlineLevel="0" r="328">
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10154</v>
+        <v>10156</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10229</v>
+        <v>10231</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10312</v>
+        <v>10314</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,10 +20335,10 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10371</v>
+        <v>10375</v>
       </c>
       <c r="W331" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row outlineLevel="0" r="332">
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10442</v>
+        <v>10446</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10495</v>
+        <v>10499</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10545</v>
+        <v>10549</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10592</v>
+        <v>10596</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10643</v>
+        <v>10647</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,10 +20725,10 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10684</v>
+        <v>10689</v>
       </c>
       <c r="W337" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row outlineLevel="0" r="338">
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10722</v>
+        <v>10727</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10771</v>
+        <v>10776</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10817</v>
+        <v>10822</v>
       </c>
       <c r="W340" s="0">
         <v>46</v>
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10873</v>
+        <v>10878</v>
       </c>
       <c r="W341" s="0">
         <v>56</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10897</v>
+        <v>10902</v>
       </c>
       <c r="W342" s="0">
         <v>24</v>
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10931</v>
+        <v>10938</v>
       </c>
       <c r="W343" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10963</v>
+        <v>10970</v>
       </c>
       <c r="W344" s="0">
         <v>32</v>
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10990</v>
+        <v>10999</v>
       </c>
       <c r="W345" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11017</v>
+        <v>11030</v>
       </c>
       <c r="W346" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11037</v>
+        <v>11050</v>
       </c>
       <c r="W347" s="0">
         <v>20</v>
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11054</v>
+        <v>11070</v>
       </c>
       <c r="W348" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,7 +21505,7 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11069</v>
+        <v>11085</v>
       </c>
       <c r="W349" s="0">
         <v>15</v>
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11084</v>
+        <v>11102</v>
       </c>
       <c r="W350" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11101</v>
+        <v>11120</v>
       </c>
       <c r="W351" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11112</v>
+        <v>11138</v>
       </c>
       <c r="W352" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11122</v>
+        <v>11155</v>
       </c>
       <c r="W353" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11131</v>
+        <v>11168</v>
       </c>
       <c r="W354" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11136</v>
+        <v>11175</v>
       </c>
       <c r="W355" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11144</v>
+        <v>11184</v>
       </c>
       <c r="W356" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,9 +22025,74 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11144</v>
+        <v>11188</v>
       </c>
       <c r="W357" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="358">
+      <c r="A358" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B358" s="0">
+        <v>767315</v>
+      </c>
+      <c r="C358" s="0">
+        <v>1226</v>
+      </c>
+      <c r="D358" s="0">
+        <v>643928</v>
+      </c>
+      <c r="E358" s="0">
+        <v>646</v>
+      </c>
+      <c r="F358" s="0">
+        <v>123387</v>
+      </c>
+      <c r="G358" s="0">
+        <v>580</v>
+      </c>
+      <c r="H358" s="0">
+        <v>742855</v>
+      </c>
+      <c r="I358" s="0">
+        <v>5950790</v>
+      </c>
+      <c r="J358" s="0">
+        <v>6693645</v>
+      </c>
+      <c r="K358" s="0">
+        <v>12245</v>
+      </c>
+      <c r="L358" s="0">
+        <v>45</v>
+      </c>
+      <c r="M358" s="0">
+        <v>11198</v>
+      </c>
+      <c r="P358" s="0">
+        <v>-1145</v>
+      </c>
+      <c r="Q358" s="0">
+        <v>15060</v>
+      </c>
+      <c r="R358" s="0">
+        <v>2326</v>
+      </c>
+      <c r="S358" s="0">
+        <v>741057</v>
+      </c>
+      <c r="T358" s="0">
+        <v>52</v>
+      </c>
+      <c r="U358" s="0">
+        <v>18363</v>
+      </c>
+      <c r="V358" s="0">
+        <v>11188</v>
+      </c>
+      <c r="W358" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22460,11 +22525,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3116</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3130</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3116</Url>
-      <Description>HJYU5V3E37X6-122305290-3116</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3130</Url>
+      <Description>HJYU5V3E37X6-122305290-3130</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22487,17 +22552,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26305C0-3AA8-49FC-A60F-3442AF575266}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC15C0A-1C6C-4FDF-AFC2-E2F0CDD80129}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5882BEAD-08B8-416A-B1E3-E2BB123B86B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90F2CD12-9413-4CF5-8068-0D12AB5184DF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594598AB-D8FE-4CB1-A229-9E90F1868F79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993B8C50-EB93-40F9-8E36-83366AB03682}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD49D9EE-4FDF-4F27-88AD-28C7C6F08CF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA7C6369-E90B-41A4-8477-04CCE3A3C488}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$357</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$359</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W357"/>
+  <dimension ref="A1:W359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15070,10 +15070,10 @@
         <v>10645</v>
       </c>
       <c r="V250" s="0">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="W250" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="251">
@@ -15135,7 +15135,7 @@
         <v>10678</v>
       </c>
       <c r="V251" s="0">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="W251" s="0">
         <v>39</v>
@@ -15200,7 +15200,7 @@
         <v>10732</v>
       </c>
       <c r="V252" s="0">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="W252" s="0">
         <v>42</v>
@@ -15265,7 +15265,7 @@
         <v>10813</v>
       </c>
       <c r="V253" s="0">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="W253" s="0">
         <v>50</v>
@@ -15330,7 +15330,7 @@
         <v>10895</v>
       </c>
       <c r="V254" s="0">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="W254" s="0">
         <v>50</v>
@@ -15395,7 +15395,7 @@
         <v>10950</v>
       </c>
       <c r="V255" s="0">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="W255" s="0">
         <v>36</v>
@@ -15460,7 +15460,7 @@
         <v>11055</v>
       </c>
       <c r="V256" s="0">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="W256" s="0">
         <v>43</v>
@@ -15525,7 +15525,7 @@
         <v>11116</v>
       </c>
       <c r="V257" s="0">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="W257" s="0">
         <v>60</v>
@@ -15590,7 +15590,7 @@
         <v>11141</v>
       </c>
       <c r="V258" s="0">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="W258" s="0">
         <v>48</v>
@@ -15655,7 +15655,7 @@
         <v>11201</v>
       </c>
       <c r="V259" s="0">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="W259" s="0">
         <v>51</v>
@@ -15720,7 +15720,7 @@
         <v>11255</v>
       </c>
       <c r="V260" s="0">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="W260" s="0">
         <v>68</v>
@@ -15785,7 +15785,7 @@
         <v>11342</v>
       </c>
       <c r="V261" s="0">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="W261" s="0">
         <v>43</v>
@@ -15850,7 +15850,7 @@
         <v>11422</v>
       </c>
       <c r="V262" s="0">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="W262" s="0">
         <v>57</v>
@@ -15915,7 +15915,7 @@
         <v>11502</v>
       </c>
       <c r="V263" s="0">
-        <v>4580</v>
+        <v>4579</v>
       </c>
       <c r="W263" s="0">
         <v>67</v>
@@ -15980,7 +15980,7 @@
         <v>11539</v>
       </c>
       <c r="V264" s="0">
-        <v>4654</v>
+        <v>4653</v>
       </c>
       <c r="W264" s="0">
         <v>74</v>
@@ -16045,7 +16045,7 @@
         <v>11570</v>
       </c>
       <c r="V265" s="0">
-        <v>4713</v>
+        <v>4712</v>
       </c>
       <c r="W265" s="0">
         <v>59</v>
@@ -16110,7 +16110,7 @@
         <v>11628</v>
       </c>
       <c r="V266" s="0">
-        <v>4782</v>
+        <v>4781</v>
       </c>
       <c r="W266" s="0">
         <v>69</v>
@@ -16175,7 +16175,7 @@
         <v>11717</v>
       </c>
       <c r="V267" s="0">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="W267" s="0">
         <v>66</v>
@@ -16240,7 +16240,7 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="W268" s="0">
         <v>62</v>
@@ -16308,7 +16308,7 @@
         <v>4955</v>
       </c>
       <c r="W269" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row outlineLevel="0" r="270">
@@ -16630,10 +16630,10 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="W274" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row outlineLevel="0" r="275">
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5368</v>
+        <v>5369</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5440</v>
+        <v>5441</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5601</v>
+        <v>5602</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5837</v>
+        <v>5838</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5975</v>
+        <v>5976</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6044</v>
+        <v>6045</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6124</v>
+        <v>6125</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6209</v>
+        <v>6210</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6285</v>
+        <v>6286</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6350</v>
+        <v>6351</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6437</v>
+        <v>6438</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,10 +17670,10 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6528</v>
+        <v>6530</v>
       </c>
       <c r="W290" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row outlineLevel="0" r="291">
@@ -17735,10 +17735,10 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6623</v>
+        <v>6626</v>
       </c>
       <c r="W291" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row outlineLevel="0" r="292">
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6716</v>
+        <v>6719</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6817</v>
+        <v>6820</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,7 +17930,7 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6920</v>
+        <v>6923</v>
       </c>
       <c r="W294" s="0">
         <v>103</v>
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7028</v>
+        <v>7031</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7126</v>
+        <v>7129</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,10 +18125,10 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7230</v>
+        <v>7234</v>
       </c>
       <c r="W297" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row outlineLevel="0" r="298">
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7310</v>
+        <v>7314</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7401</v>
+        <v>7405</v>
       </c>
       <c r="W299" s="0">
         <v>91</v>
@@ -18320,10 +18320,10 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7488</v>
+        <v>7493</v>
       </c>
       <c r="W300" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row outlineLevel="0" r="301">
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7579</v>
+        <v>7584</v>
       </c>
       <c r="W301" s="0">
         <v>91</v>
@@ -18450,10 +18450,10 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7676</v>
+        <v>7682</v>
       </c>
       <c r="W302" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row outlineLevel="0" r="303">
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7775</v>
+        <v>7781</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7875</v>
+        <v>7881</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7973</v>
+        <v>7979</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,10 +18710,10 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8062</v>
+        <v>8067</v>
       </c>
       <c r="W306" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row outlineLevel="0" r="307">
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8166</v>
+        <v>8171</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8274</v>
+        <v>8279</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8389</v>
+        <v>8394</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8505</v>
+        <v>8510</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8595</v>
+        <v>8600</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8711</v>
+        <v>8716</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8799</v>
+        <v>8804</v>
       </c>
       <c r="W313" s="0">
         <v>88</v>
@@ -19230,10 +19230,10 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8905</v>
+        <v>8911</v>
       </c>
       <c r="W314" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row outlineLevel="0" r="315">
@@ -19295,10 +19295,10 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9006</v>
+        <v>9013</v>
       </c>
       <c r="W315" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row outlineLevel="0" r="316">
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9104</v>
+        <v>9111</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9181</v>
+        <v>9188</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9287</v>
+        <v>9294</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9379</v>
+        <v>9386</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9466</v>
+        <v>9473</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9556</v>
+        <v>9563</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,10 +19750,10 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9635</v>
+        <v>9643</v>
       </c>
       <c r="W322" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row outlineLevel="0" r="323">
@@ -19815,10 +19815,10 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9732</v>
+        <v>9742</v>
       </c>
       <c r="W323" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9818</v>
+        <v>9828</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9926</v>
+        <v>9936</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,10 +20010,10 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10000</v>
+        <v>10011</v>
       </c>
       <c r="W326" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row outlineLevel="0" r="327">
@@ -20075,10 +20075,10 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10071</v>
+        <v>10081</v>
       </c>
       <c r="W327" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row outlineLevel="0" r="328">
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10154</v>
+        <v>10164</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10229</v>
+        <v>10239</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10312</v>
+        <v>10322</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,10 +20335,10 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10371</v>
+        <v>10383</v>
       </c>
       <c r="W331" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row outlineLevel="0" r="332">
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10442</v>
+        <v>10454</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10495</v>
+        <v>10507</v>
       </c>
       <c r="W333" s="0">
         <v>53</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10545</v>
+        <v>10557</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10592</v>
+        <v>10604</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10643</v>
+        <v>10655</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,10 +20725,10 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10684</v>
+        <v>10698</v>
       </c>
       <c r="W337" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row outlineLevel="0" r="338">
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10722</v>
+        <v>10736</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10771</v>
+        <v>10785</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10817</v>
+        <v>10832</v>
       </c>
       <c r="W340" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10873</v>
+        <v>10888</v>
       </c>
       <c r="W341" s="0">
         <v>56</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10897</v>
+        <v>10912</v>
       </c>
       <c r="W342" s="0">
         <v>24</v>
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10931</v>
+        <v>10948</v>
       </c>
       <c r="W343" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10963</v>
+        <v>10983</v>
       </c>
       <c r="W344" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>10990</v>
+        <v>11014</v>
       </c>
       <c r="W345" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11017</v>
+        <v>11045</v>
       </c>
       <c r="W346" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11037</v>
+        <v>11068</v>
       </c>
       <c r="W347" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11054</v>
+        <v>11089</v>
       </c>
       <c r="W348" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11069</v>
+        <v>11110</v>
       </c>
       <c r="W349" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11084</v>
+        <v>11134</v>
       </c>
       <c r="W350" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11101</v>
+        <v>11157</v>
       </c>
       <c r="W351" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11112</v>
+        <v>11189</v>
       </c>
       <c r="W352" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11122</v>
+        <v>11211</v>
       </c>
       <c r="W353" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11131</v>
+        <v>11229</v>
       </c>
       <c r="W354" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11136</v>
+        <v>11237</v>
       </c>
       <c r="W355" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11144</v>
+        <v>11249</v>
       </c>
       <c r="W356" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,9 +22025,139 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11144</v>
+        <v>11255</v>
       </c>
       <c r="W357" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="358">
+      <c r="A358" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B358" s="0">
+        <v>767315</v>
+      </c>
+      <c r="C358" s="0">
+        <v>1226</v>
+      </c>
+      <c r="D358" s="0">
+        <v>643928</v>
+      </c>
+      <c r="E358" s="0">
+        <v>646</v>
+      </c>
+      <c r="F358" s="0">
+        <v>123387</v>
+      </c>
+      <c r="G358" s="0">
+        <v>580</v>
+      </c>
+      <c r="H358" s="0">
+        <v>742855</v>
+      </c>
+      <c r="I358" s="0">
+        <v>5950790</v>
+      </c>
+      <c r="J358" s="0">
+        <v>6693645</v>
+      </c>
+      <c r="K358" s="0">
+        <v>12245</v>
+      </c>
+      <c r="L358" s="0">
+        <v>45</v>
+      </c>
+      <c r="M358" s="0">
+        <v>11198</v>
+      </c>
+      <c r="P358" s="0">
+        <v>-1145</v>
+      </c>
+      <c r="Q358" s="0">
+        <v>15060</v>
+      </c>
+      <c r="R358" s="0">
+        <v>2326</v>
+      </c>
+      <c r="S358" s="0">
+        <v>741057</v>
+      </c>
+      <c r="T358" s="0">
+        <v>52</v>
+      </c>
+      <c r="U358" s="0">
+        <v>18363</v>
+      </c>
+      <c r="V358" s="0">
+        <v>11257</v>
+      </c>
+      <c r="W358" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="359">
+      <c r="A359" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B359" s="0">
+        <v>768946</v>
+      </c>
+      <c r="C359" s="0">
+        <v>1631</v>
+      </c>
+      <c r="D359" s="0">
+        <v>645002</v>
+      </c>
+      <c r="E359" s="0">
+        <v>1074</v>
+      </c>
+      <c r="F359" s="0">
+        <v>123944</v>
+      </c>
+      <c r="G359" s="0">
+        <v>557</v>
+      </c>
+      <c r="H359" s="0">
+        <v>744017</v>
+      </c>
+      <c r="I359" s="0">
+        <v>5965383</v>
+      </c>
+      <c r="J359" s="0">
+        <v>6709400</v>
+      </c>
+      <c r="K359" s="0">
+        <v>15755</v>
+      </c>
+      <c r="L359" s="0">
+        <v>68</v>
+      </c>
+      <c r="M359" s="0">
+        <v>11266</v>
+      </c>
+      <c r="P359" s="0">
+        <v>-634</v>
+      </c>
+      <c r="Q359" s="0">
+        <v>14426</v>
+      </c>
+      <c r="R359" s="0">
+        <v>2197</v>
+      </c>
+      <c r="S359" s="0">
+        <v>743254</v>
+      </c>
+      <c r="T359" s="0">
+        <v>67</v>
+      </c>
+      <c r="U359" s="0">
+        <v>18430</v>
+      </c>
+      <c r="V359" s="0">
+        <v>11257</v>
+      </c>
+      <c r="W359" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22460,11 +22590,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3116</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3142</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3116</Url>
-      <Description>HJYU5V3E37X6-122305290-3116</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3142</Url>
+      <Description>HJYU5V3E37X6-122305290-3142</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22487,17 +22617,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D26305C0-3AA8-49FC-A60F-3442AF575266}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8387C8E1-EA9E-4D42-9950-73B38D931038}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5882BEAD-08B8-416A-B1E3-E2BB123B86B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C6A013-A68F-4C60-AE8E-3AF994F72699}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{594598AB-D8FE-4CB1-A229-9E90F1868F79}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E1713B-B479-4A80-A9C6-2983A30BBEB8}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD49D9EE-4FDF-4F27-88AD-28C7C6F08CF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD93D33-4430-4CDF-824D-EFFD8AC0E281}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$359</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$360</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W359"/>
+  <dimension ref="A1:W360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20465,10 +20465,10 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10507</v>
+        <v>10509</v>
       </c>
       <c r="W333" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row outlineLevel="0" r="334">
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10557</v>
+        <v>10559</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10604</v>
+        <v>10606</v>
       </c>
       <c r="W335" s="0">
         <v>47</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10655</v>
+        <v>10657</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10698</v>
+        <v>10700</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10736</v>
+        <v>10738</v>
       </c>
       <c r="W338" s="0">
         <v>38</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10785</v>
+        <v>10787</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10832</v>
+        <v>10834</v>
       </c>
       <c r="W340" s="0">
         <v>47</v>
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10888</v>
+        <v>10890</v>
       </c>
       <c r="W341" s="0">
         <v>56</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10912</v>
+        <v>10914</v>
       </c>
       <c r="W342" s="0">
         <v>24</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10948</v>
+        <v>10950</v>
       </c>
       <c r="W343" s="0">
         <v>36</v>
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10983</v>
+        <v>10985</v>
       </c>
       <c r="W344" s="0">
         <v>35</v>
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11014</v>
+        <v>11017</v>
       </c>
       <c r="W345" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11045</v>
+        <v>11048</v>
       </c>
       <c r="W346" s="0">
         <v>31</v>
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11068</v>
+        <v>11072</v>
       </c>
       <c r="W347" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11089</v>
+        <v>11098</v>
       </c>
       <c r="W348" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11110</v>
+        <v>11121</v>
       </c>
       <c r="W349" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11134</v>
+        <v>11146</v>
       </c>
       <c r="W350" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11157</v>
+        <v>11172</v>
       </c>
       <c r="W351" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11189</v>
+        <v>11205</v>
       </c>
       <c r="W352" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11211</v>
+        <v>11229</v>
       </c>
       <c r="W353" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11229</v>
+        <v>11252</v>
       </c>
       <c r="W354" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11237</v>
+        <v>11261</v>
       </c>
       <c r="W355" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11249</v>
+        <v>11282</v>
       </c>
       <c r="W356" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11255</v>
+        <v>11293</v>
       </c>
       <c r="W357" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11257</v>
+        <v>11303</v>
       </c>
       <c r="W358" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,10 +22155,75 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11257</v>
+        <v>11308</v>
       </c>
       <c r="W359" s="0">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="360">
+      <c r="A360" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B360" s="0">
+        <v>770940</v>
+      </c>
+      <c r="C360" s="0">
+        <v>1994</v>
+      </c>
+      <c r="D360" s="0">
+        <v>646494</v>
+      </c>
+      <c r="E360" s="0">
+        <v>1492</v>
+      </c>
+      <c r="F360" s="0">
+        <v>124446</v>
+      </c>
+      <c r="G360" s="0">
+        <v>502</v>
+      </c>
+      <c r="H360" s="0">
+        <v>745675</v>
+      </c>
+      <c r="I360" s="0">
+        <v>5989429</v>
+      </c>
+      <c r="J360" s="0">
+        <v>6735104</v>
+      </c>
+      <c r="K360" s="0">
+        <v>25704</v>
+      </c>
+      <c r="L360" s="0">
+        <v>55</v>
+      </c>
+      <c r="M360" s="0">
+        <v>11321</v>
+      </c>
+      <c r="P360" s="0">
+        <v>-7</v>
+      </c>
+      <c r="Q360" s="0">
+        <v>14419</v>
+      </c>
+      <c r="R360" s="0">
+        <v>1946</v>
+      </c>
+      <c r="S360" s="0">
+        <v>745200</v>
+      </c>
+      <c r="T360" s="0">
+        <v>76</v>
+      </c>
+      <c r="U360" s="0">
+        <v>18506</v>
+      </c>
+      <c r="V360" s="0">
+        <v>11311</v>
+      </c>
+      <c r="W360" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -22590,11 +22655,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3142</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3152</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3142</Url>
-      <Description>HJYU5V3E37X6-122305290-3142</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3152</Url>
+      <Description>HJYU5V3E37X6-122305290-3152</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22617,17 +22682,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8387C8E1-EA9E-4D42-9950-73B38D931038}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1D9FFC-0C39-47FE-927B-920E0E21DCF2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C6A013-A68F-4C60-AE8E-3AF994F72699}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6697D16-C68B-4980-89C4-2928F419D4C1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91E1713B-B479-4A80-A9C6-2983A30BBEB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1345618A-5CD0-4C69-A885-1FBF7B6DCD3B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD93D33-4430-4CDF-824D-EFFD8AC0E281}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7DF372-4986-462E-A2FD-210D1EC08557}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$360</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$361</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W360"/>
+  <dimension ref="A1:W361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16240,10 +16240,10 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="W268" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row outlineLevel="0" r="269">
@@ -16305,7 +16305,7 @@
         <v>11950</v>
       </c>
       <c r="V269" s="0">
-        <v>4955</v>
+        <v>4956</v>
       </c>
       <c r="W269" s="0">
         <v>46</v>
@@ -16370,7 +16370,7 @@
         <v>11974</v>
       </c>
       <c r="V270" s="0">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="W270" s="0">
         <v>80</v>
@@ -16435,7 +16435,7 @@
         <v>12005</v>
       </c>
       <c r="V271" s="0">
-        <v>5097</v>
+        <v>5098</v>
       </c>
       <c r="W271" s="0">
         <v>62</v>
@@ -16500,7 +16500,7 @@
         <v>12040</v>
       </c>
       <c r="V272" s="0">
-        <v>5155</v>
+        <v>5156</v>
       </c>
       <c r="W272" s="0">
         <v>58</v>
@@ -16565,7 +16565,7 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5234</v>
+        <v>5235</v>
       </c>
       <c r="W273" s="0">
         <v>79</v>
@@ -16630,7 +16630,7 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="W274" s="0">
         <v>68</v>
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5369</v>
+        <v>5370</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5524</v>
+        <v>5525</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5602</v>
+        <v>5603</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5838</v>
+        <v>5839</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6045</v>
+        <v>6046</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6125</v>
+        <v>6126</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6210</v>
+        <v>6211</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6286</v>
+        <v>6287</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6351</v>
+        <v>6352</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6438</v>
+        <v>6439</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,7 +17670,7 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6530</v>
+        <v>6531</v>
       </c>
       <c r="W290" s="0">
         <v>92</v>
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6626</v>
+        <v>6627</v>
       </c>
       <c r="W291" s="0">
         <v>96</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6719</v>
+        <v>6720</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6820</v>
+        <v>6821</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,10 +17930,10 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6923</v>
+        <v>6925</v>
       </c>
       <c r="W294" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row outlineLevel="0" r="295">
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7031</v>
+        <v>7033</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7129</v>
+        <v>7131</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7234</v>
+        <v>7236</v>
       </c>
       <c r="W297" s="0">
         <v>105</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7314</v>
+        <v>7316</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,10 +18255,10 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7405</v>
+        <v>7408</v>
       </c>
       <c r="W299" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row outlineLevel="0" r="300">
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7493</v>
+        <v>7496</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7584</v>
+        <v>7587</v>
       </c>
       <c r="W301" s="0">
         <v>91</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7682</v>
+        <v>7685</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7781</v>
+        <v>7784</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7881</v>
+        <v>7884</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7979</v>
+        <v>7982</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8067</v>
+        <v>8070</v>
       </c>
       <c r="W306" s="0">
         <v>88</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8171</v>
+        <v>8174</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8279</v>
+        <v>8282</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8394</v>
+        <v>8397</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8510</v>
+        <v>8513</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8600</v>
+        <v>8603</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8716</v>
+        <v>8719</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,10 +19165,10 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8804</v>
+        <v>8808</v>
       </c>
       <c r="W313" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row outlineLevel="0" r="314">
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8911</v>
+        <v>8915</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9013</v>
+        <v>9017</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9111</v>
+        <v>9115</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9188</v>
+        <v>9192</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9294</v>
+        <v>9298</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9386</v>
+        <v>9390</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9473</v>
+        <v>9477</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9563</v>
+        <v>9567</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,10 +19750,10 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9643</v>
+        <v>9648</v>
       </c>
       <c r="W322" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row outlineLevel="0" r="323">
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9742</v>
+        <v>9747</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9828</v>
+        <v>9833</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9936</v>
+        <v>9941</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10011</v>
+        <v>10016</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,10 +20075,10 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10081</v>
+        <v>10087</v>
       </c>
       <c r="W327" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row outlineLevel="0" r="328">
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10164</v>
+        <v>10170</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10239</v>
+        <v>10245</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10322</v>
+        <v>10328</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10383</v>
+        <v>10389</v>
       </c>
       <c r="W331" s="0">
         <v>61</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10454</v>
+        <v>10460</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10509</v>
+        <v>10515</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10559</v>
+        <v>10565</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,10 +20595,10 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10606</v>
+        <v>10613</v>
       </c>
       <c r="W335" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row outlineLevel="0" r="336">
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10657</v>
+        <v>10664</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10700</v>
+        <v>10707</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,10 +20790,10 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10738</v>
+        <v>10746</v>
       </c>
       <c r="W338" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row outlineLevel="0" r="339">
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10787</v>
+        <v>10795</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10834</v>
+        <v>10842</v>
       </c>
       <c r="W340" s="0">
         <v>47</v>
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10890</v>
+        <v>10900</v>
       </c>
       <c r="W341" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10914</v>
+        <v>10926</v>
       </c>
       <c r="W342" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10950</v>
+        <v>10962</v>
       </c>
       <c r="W343" s="0">
         <v>36</v>
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10985</v>
+        <v>10999</v>
       </c>
       <c r="W344" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11017</v>
+        <v>11031</v>
       </c>
       <c r="W345" s="0">
         <v>32</v>
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11048</v>
+        <v>11064</v>
       </c>
       <c r="W346" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11072</v>
+        <v>11090</v>
       </c>
       <c r="W347" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11098</v>
+        <v>11121</v>
       </c>
       <c r="W348" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11121</v>
+        <v>11147</v>
       </c>
       <c r="W349" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11146</v>
+        <v>11172</v>
       </c>
       <c r="W350" s="0">
         <v>25</v>
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11172</v>
+        <v>11200</v>
       </c>
       <c r="W351" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11205</v>
+        <v>11236</v>
       </c>
       <c r="W352" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11229</v>
+        <v>11261</v>
       </c>
       <c r="W353" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11252</v>
+        <v>11288</v>
       </c>
       <c r="W354" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11261</v>
+        <v>11302</v>
       </c>
       <c r="W355" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11282</v>
+        <v>11323</v>
       </c>
       <c r="W356" s="0">
         <v>21</v>
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11293</v>
+        <v>11338</v>
       </c>
       <c r="W357" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11303</v>
+        <v>11352</v>
       </c>
       <c r="W358" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,10 +22155,10 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11308</v>
+        <v>11359</v>
       </c>
       <c r="W359" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="360">
@@ -22220,10 +22220,75 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11311</v>
+        <v>11365</v>
       </c>
       <c r="W360" s="0">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="361">
+      <c r="A361" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B361" s="0">
+        <v>772513</v>
+      </c>
+      <c r="C361" s="0">
+        <v>1573</v>
+      </c>
+      <c r="D361" s="0">
+        <v>647629</v>
+      </c>
+      <c r="E361" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F361" s="0">
+        <v>124884</v>
+      </c>
+      <c r="G361" s="0">
+        <v>438</v>
+      </c>
+      <c r="H361" s="0">
+        <v>746929</v>
+      </c>
+      <c r="I361" s="0">
+        <v>6006830</v>
+      </c>
+      <c r="J361" s="0">
+        <v>6753759</v>
+      </c>
+      <c r="K361" s="0">
+        <v>18655</v>
+      </c>
+      <c r="L361" s="0">
+        <v>56</v>
+      </c>
+      <c r="M361" s="0">
+        <v>11377</v>
+      </c>
+      <c r="P361" s="0">
+        <v>-237</v>
+      </c>
+      <c r="Q361" s="0">
+        <v>14182</v>
+      </c>
+      <c r="R361" s="0">
+        <v>1754</v>
+      </c>
+      <c r="S361" s="0">
+        <v>746954</v>
+      </c>
+      <c r="T361" s="0">
+        <v>47</v>
+      </c>
+      <c r="U361" s="0">
+        <v>18553</v>
+      </c>
+      <c r="V361" s="0">
+        <v>11366</v>
+      </c>
+      <c r="W361" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22655,11 +22720,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3152</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3160</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3152</Url>
-      <Description>HJYU5V3E37X6-122305290-3152</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3160</Url>
+      <Description>HJYU5V3E37X6-122305290-3160</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22682,17 +22747,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1D9FFC-0C39-47FE-927B-920E0E21DCF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09FC5F4-C40B-4B6F-B4AB-6E8B037C10B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6697D16-C68B-4980-89C4-2928F419D4C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A75352E4-3C8F-495B-A2A2-C16E6B3A485A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1345618A-5CD0-4C69-A885-1FBF7B6DCD3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5AD0CB9-4878-4741-A74A-4F2EA8BE2B82}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7DF372-4986-462E-A2FD-210D1EC08557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78C2CF44-DAB0-4930-8880-BACF4893C097}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$360</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$363</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W360"/>
+  <dimension ref="A1:W363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16240,10 +16240,10 @@
         <v>11814</v>
       </c>
       <c r="V268" s="0">
-        <v>4909</v>
+        <v>4911</v>
       </c>
       <c r="W268" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row outlineLevel="0" r="269">
@@ -16305,10 +16305,10 @@
         <v>11950</v>
       </c>
       <c r="V269" s="0">
-        <v>4955</v>
+        <v>4958</v>
       </c>
       <c r="W269" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row outlineLevel="0" r="270">
@@ -16370,7 +16370,7 @@
         <v>11974</v>
       </c>
       <c r="V270" s="0">
-        <v>5035</v>
+        <v>5038</v>
       </c>
       <c r="W270" s="0">
         <v>80</v>
@@ -16435,7 +16435,7 @@
         <v>12005</v>
       </c>
       <c r="V271" s="0">
-        <v>5097</v>
+        <v>5100</v>
       </c>
       <c r="W271" s="0">
         <v>62</v>
@@ -16500,7 +16500,7 @@
         <v>12040</v>
       </c>
       <c r="V272" s="0">
-        <v>5155</v>
+        <v>5158</v>
       </c>
       <c r="W272" s="0">
         <v>58</v>
@@ -16565,7 +16565,7 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5234</v>
+        <v>5237</v>
       </c>
       <c r="W273" s="0">
         <v>79</v>
@@ -16630,7 +16630,7 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="W274" s="0">
         <v>68</v>
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5369</v>
+        <v>5372</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5441</v>
+        <v>5444</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5524</v>
+        <v>5527</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5602</v>
+        <v>5605</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5688</v>
+        <v>5691</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5759</v>
+        <v>5762</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5900</v>
+        <v>5903</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5976</v>
+        <v>5979</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17280,7 +17280,7 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6045</v>
+        <v>6048</v>
       </c>
       <c r="W284" s="0">
         <v>69</v>
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6125</v>
+        <v>6128</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6210</v>
+        <v>6213</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6286</v>
+        <v>6289</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6351</v>
+        <v>6354</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6438</v>
+        <v>6441</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,10 +17670,10 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6530</v>
+        <v>6532</v>
       </c>
       <c r="W290" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row outlineLevel="0" r="291">
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6626</v>
+        <v>6628</v>
       </c>
       <c r="W291" s="0">
         <v>96</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6719</v>
+        <v>6721</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6820</v>
+        <v>6822</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,10 +17930,10 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6923</v>
+        <v>6926</v>
       </c>
       <c r="W294" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row outlineLevel="0" r="295">
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7031</v>
+        <v>7034</v>
       </c>
       <c r="W295" s="0">
         <v>108</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7129</v>
+        <v>7132</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7234</v>
+        <v>7237</v>
       </c>
       <c r="W297" s="0">
         <v>105</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7314</v>
+        <v>7317</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,10 +18255,10 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7405</v>
+        <v>7409</v>
       </c>
       <c r="W299" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row outlineLevel="0" r="300">
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7493</v>
+        <v>7497</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7584</v>
+        <v>7588</v>
       </c>
       <c r="W301" s="0">
         <v>91</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7682</v>
+        <v>7686</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7781</v>
+        <v>7785</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7881</v>
+        <v>7885</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7979</v>
+        <v>7983</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,10 +18710,10 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8067</v>
+        <v>8072</v>
       </c>
       <c r="W306" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row outlineLevel="0" r="307">
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8171</v>
+        <v>8176</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8279</v>
+        <v>8284</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8394</v>
+        <v>8399</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8510</v>
+        <v>8515</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8600</v>
+        <v>8605</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8716</v>
+        <v>8721</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,10 +19165,10 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8804</v>
+        <v>8810</v>
       </c>
       <c r="W313" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row outlineLevel="0" r="314">
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8911</v>
+        <v>8917</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9013</v>
+        <v>9019</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9111</v>
+        <v>9117</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9188</v>
+        <v>9194</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9294</v>
+        <v>9300</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9386</v>
+        <v>9392</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9473</v>
+        <v>9479</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9563</v>
+        <v>9569</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,10 +19750,10 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9643</v>
+        <v>9650</v>
       </c>
       <c r="W322" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row outlineLevel="0" r="323">
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9742</v>
+        <v>9749</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9828</v>
+        <v>9835</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9936</v>
+        <v>9943</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10011</v>
+        <v>10018</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,10 +20075,10 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10081</v>
+        <v>10089</v>
       </c>
       <c r="W327" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row outlineLevel="0" r="328">
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10164</v>
+        <v>10172</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10239</v>
+        <v>10247</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10322</v>
+        <v>10330</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,10 +20335,10 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10383</v>
+        <v>10392</v>
       </c>
       <c r="W331" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row outlineLevel="0" r="332">
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10454</v>
+        <v>10463</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10509</v>
+        <v>10518</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10559</v>
+        <v>10568</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,10 +20595,10 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10606</v>
+        <v>10616</v>
       </c>
       <c r="W335" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row outlineLevel="0" r="336">
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10657</v>
+        <v>10667</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10700</v>
+        <v>10710</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,10 +20790,10 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10738</v>
+        <v>10749</v>
       </c>
       <c r="W338" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row outlineLevel="0" r="339">
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10787</v>
+        <v>10798</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10834</v>
+        <v>10845</v>
       </c>
       <c r="W340" s="0">
         <v>47</v>
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10890</v>
+        <v>10903</v>
       </c>
       <c r="W341" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,10 +21050,10 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10914</v>
+        <v>10929</v>
       </c>
       <c r="W342" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="343">
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10950</v>
+        <v>10965</v>
       </c>
       <c r="W343" s="0">
         <v>36</v>
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>10985</v>
+        <v>11004</v>
       </c>
       <c r="W344" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11017</v>
+        <v>11037</v>
       </c>
       <c r="W345" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11048</v>
+        <v>11071</v>
       </c>
       <c r="W346" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11072</v>
+        <v>11097</v>
       </c>
       <c r="W347" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11098</v>
+        <v>11129</v>
       </c>
       <c r="W348" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11121</v>
+        <v>11156</v>
       </c>
       <c r="W349" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11146</v>
+        <v>11182</v>
       </c>
       <c r="W350" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11172</v>
+        <v>11211</v>
       </c>
       <c r="W351" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11205</v>
+        <v>11248</v>
       </c>
       <c r="W352" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11229</v>
+        <v>11276</v>
       </c>
       <c r="W353" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11252</v>
+        <v>11304</v>
       </c>
       <c r="W354" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11261</v>
+        <v>11321</v>
       </c>
       <c r="W355" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11282</v>
+        <v>11345</v>
       </c>
       <c r="W356" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11293</v>
+        <v>11360</v>
       </c>
       <c r="W357" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11303</v>
+        <v>11376</v>
       </c>
       <c r="W358" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,10 +22155,10 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11308</v>
+        <v>11385</v>
       </c>
       <c r="W359" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="360">
@@ -22220,10 +22220,205 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11311</v>
+        <v>11396</v>
       </c>
       <c r="W360" s="0">
-        <v>3</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="361">
+      <c r="A361" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B361" s="0">
+        <v>772513</v>
+      </c>
+      <c r="C361" s="0">
+        <v>1573</v>
+      </c>
+      <c r="D361" s="0">
+        <v>647629</v>
+      </c>
+      <c r="E361" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F361" s="0">
+        <v>124884</v>
+      </c>
+      <c r="G361" s="0">
+        <v>438</v>
+      </c>
+      <c r="H361" s="0">
+        <v>746929</v>
+      </c>
+      <c r="I361" s="0">
+        <v>6006830</v>
+      </c>
+      <c r="J361" s="0">
+        <v>6753759</v>
+      </c>
+      <c r="K361" s="0">
+        <v>18655</v>
+      </c>
+      <c r="L361" s="0">
+        <v>56</v>
+      </c>
+      <c r="M361" s="0">
+        <v>11377</v>
+      </c>
+      <c r="P361" s="0">
+        <v>-237</v>
+      </c>
+      <c r="Q361" s="0">
+        <v>14182</v>
+      </c>
+      <c r="R361" s="0">
+        <v>1754</v>
+      </c>
+      <c r="S361" s="0">
+        <v>746954</v>
+      </c>
+      <c r="T361" s="0">
+        <v>47</v>
+      </c>
+      <c r="U361" s="0">
+        <v>18553</v>
+      </c>
+      <c r="V361" s="0">
+        <v>11400</v>
+      </c>
+      <c r="W361" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="362">
+      <c r="A362" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B362" s="0">
+        <v>773887</v>
+      </c>
+      <c r="C362" s="0">
+        <v>1374</v>
+      </c>
+      <c r="D362" s="0">
+        <v>648472</v>
+      </c>
+      <c r="E362" s="0">
+        <v>843</v>
+      </c>
+      <c r="F362" s="0">
+        <v>125415</v>
+      </c>
+      <c r="G362" s="0">
+        <v>531</v>
+      </c>
+      <c r="H362" s="0">
+        <v>747859</v>
+      </c>
+      <c r="I362" s="0">
+        <v>6021579</v>
+      </c>
+      <c r="J362" s="0">
+        <v>6769438</v>
+      </c>
+      <c r="K362" s="0">
+        <v>15679</v>
+      </c>
+      <c r="L362" s="0">
+        <v>16</v>
+      </c>
+      <c r="M362" s="0">
+        <v>11393</v>
+      </c>
+      <c r="P362" s="0">
+        <v>-427</v>
+      </c>
+      <c r="Q362" s="0">
+        <v>13755</v>
+      </c>
+      <c r="R362" s="0">
+        <v>1785</v>
+      </c>
+      <c r="S362" s="0">
+        <v>748739</v>
+      </c>
+      <c r="T362" s="0">
+        <v>33</v>
+      </c>
+      <c r="U362" s="0">
+        <v>18586</v>
+      </c>
+      <c r="V362" s="0">
+        <v>11400</v>
+      </c>
+      <c r="W362" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="363">
+      <c r="A363" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B363" s="0">
+        <v>775004</v>
+      </c>
+      <c r="C363" s="0">
+        <v>1117</v>
+      </c>
+      <c r="D363" s="0">
+        <v>649166</v>
+      </c>
+      <c r="E363" s="0">
+        <v>694</v>
+      </c>
+      <c r="F363" s="0">
+        <v>125838</v>
+      </c>
+      <c r="G363" s="0">
+        <v>423</v>
+      </c>
+      <c r="H363" s="0">
+        <v>748632</v>
+      </c>
+      <c r="I363" s="0">
+        <v>6032229</v>
+      </c>
+      <c r="J363" s="0">
+        <v>6780861</v>
+      </c>
+      <c r="K363" s="0">
+        <v>11423</v>
+      </c>
+      <c r="L363" s="0">
+        <v>18</v>
+      </c>
+      <c r="M363" s="0">
+        <v>11411</v>
+      </c>
+      <c r="P363" s="0">
+        <v>-25</v>
+      </c>
+      <c r="Q363" s="0">
+        <v>13730</v>
+      </c>
+      <c r="R363" s="0">
+        <v>1124</v>
+      </c>
+      <c r="S363" s="0">
+        <v>749863</v>
+      </c>
+      <c r="T363" s="0">
+        <v>19</v>
+      </c>
+      <c r="U363" s="0">
+        <v>18605</v>
+      </c>
+      <c r="V363" s="0">
+        <v>11400</v>
+      </c>
+      <c r="W363" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22655,11 +22850,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3152</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3182</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3152</Url>
-      <Description>HJYU5V3E37X6-122305290-3152</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3182</Url>
+      <Description>HJYU5V3E37X6-122305290-3182</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22682,17 +22877,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF1D9FFC-0C39-47FE-927B-920E0E21DCF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30566445-75D8-4587-BD77-95DA778790DD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6697D16-C68B-4980-89C4-2928F419D4C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890C99F5-E2E9-4C5B-9815-5B4FE24EE5E9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1345618A-5CD0-4C69-A885-1FBF7B6DCD3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C275CF-B16D-4F7B-BEA6-5194324531D4}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7DF372-4986-462E-A2FD-210D1EC08557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D5FAA20-DA6D-4F51-B32C-82153524A89E}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$363</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$364</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W363"/>
+  <dimension ref="A1:W364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18385,10 +18385,10 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7588</v>
+        <v>7587</v>
       </c>
       <c r="W301" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row outlineLevel="0" r="302">
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7686</v>
+        <v>7685</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7785</v>
+        <v>7784</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7885</v>
+        <v>7884</v>
       </c>
       <c r="W304" s="0">
         <v>100</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7983</v>
+        <v>7982</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8072</v>
+        <v>8071</v>
       </c>
       <c r="W306" s="0">
         <v>89</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8176</v>
+        <v>8175</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8284</v>
+        <v>8283</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8399</v>
+        <v>8398</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8515</v>
+        <v>8514</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8605</v>
+        <v>8604</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8721</v>
+        <v>8720</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8810</v>
+        <v>8809</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8917</v>
+        <v>8916</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9019</v>
+        <v>9018</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9117</v>
+        <v>9116</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9300</v>
+        <v>9299</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9392</v>
+        <v>9391</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9569</v>
+        <v>9568</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="W322" s="0">
         <v>81</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9749</v>
+        <v>9748</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9835</v>
+        <v>9834</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9943</v>
+        <v>9942</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10018</v>
+        <v>10017</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10089</v>
+        <v>10088</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10172</v>
+        <v>10171</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10247</v>
+        <v>10246</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10330</v>
+        <v>10329</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10392</v>
+        <v>10391</v>
       </c>
       <c r="W331" s="0">
         <v>62</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10463</v>
+        <v>10462</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10518</v>
+        <v>10517</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10568</v>
+        <v>10567</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10667</v>
+        <v>10666</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10710</v>
+        <v>10709</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10749</v>
+        <v>10748</v>
       </c>
       <c r="W338" s="0">
         <v>39</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10798</v>
+        <v>10797</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10845</v>
+        <v>10844</v>
       </c>
       <c r="W340" s="0">
         <v>47</v>
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10903</v>
+        <v>10902</v>
       </c>
       <c r="W341" s="0">
         <v>58</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10929</v>
+        <v>10928</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10965</v>
+        <v>10964</v>
       </c>
       <c r="W343" s="0">
         <v>36</v>
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="W344" s="0">
         <v>39</v>
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11037</v>
+        <v>11036</v>
       </c>
       <c r="W345" s="0">
         <v>33</v>
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11071</v>
+        <v>11070</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11097</v>
+        <v>11096</v>
       </c>
       <c r="W347" s="0">
         <v>26</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11129</v>
+        <v>11128</v>
       </c>
       <c r="W348" s="0">
         <v>32</v>
@@ -21505,7 +21505,7 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="W349" s="0">
         <v>27</v>
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11182</v>
+        <v>11181</v>
       </c>
       <c r="W350" s="0">
         <v>26</v>
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11211</v>
+        <v>11210</v>
       </c>
       <c r="W351" s="0">
         <v>29</v>
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11248</v>
+        <v>11247</v>
       </c>
       <c r="W352" s="0">
         <v>37</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11276</v>
+        <v>11275</v>
       </c>
       <c r="W353" s="0">
         <v>28</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11304</v>
+        <v>11303</v>
       </c>
       <c r="W354" s="0">
         <v>28</v>
@@ -21898,7 +21898,7 @@
         <v>11321</v>
       </c>
       <c r="W355" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -22285,10 +22285,10 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11400</v>
+        <v>11404</v>
       </c>
       <c r="W361" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="362">
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11400</v>
+        <v>11408</v>
       </c>
       <c r="W362" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,9 +22415,74 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11400</v>
+        <v>11410</v>
       </c>
       <c r="W363" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="364">
+      <c r="A364" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B364" s="0">
+        <v>775693</v>
+      </c>
+      <c r="C364" s="0">
+        <v>689</v>
+      </c>
+      <c r="D364" s="0">
+        <v>649664</v>
+      </c>
+      <c r="E364" s="0">
+        <v>498</v>
+      </c>
+      <c r="F364" s="0">
+        <v>126029</v>
+      </c>
+      <c r="G364" s="0">
+        <v>191</v>
+      </c>
+      <c r="H364" s="0">
+        <v>749192</v>
+      </c>
+      <c r="I364" s="0">
+        <v>6040778</v>
+      </c>
+      <c r="J364" s="0">
+        <v>6789970</v>
+      </c>
+      <c r="K364" s="0">
+        <v>9109</v>
+      </c>
+      <c r="L364" s="0">
+        <v>10</v>
+      </c>
+      <c r="M364" s="0">
+        <v>11421</v>
+      </c>
+      <c r="P364" s="0">
+        <v>-213</v>
+      </c>
+      <c r="Q364" s="0">
+        <v>13517</v>
+      </c>
+      <c r="R364" s="0">
+        <v>892</v>
+      </c>
+      <c r="S364" s="0">
+        <v>750755</v>
+      </c>
+      <c r="T364" s="0">
+        <v>15</v>
+      </c>
+      <c r="U364" s="0">
+        <v>18620</v>
+      </c>
+      <c r="V364" s="0">
+        <v>11410</v>
+      </c>
+      <c r="W364" s="0">
         <v>0</v>
       </c>
     </row>
@@ -22850,11 +22915,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3182</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3193</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3182</Url>
-      <Description>HJYU5V3E37X6-122305290-3182</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3193</Url>
+      <Description>HJYU5V3E37X6-122305290-3193</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22877,17 +22942,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30566445-75D8-4587-BD77-95DA778790DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A19E8BC-6F79-4D3D-81B6-E9C41B1859DD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890C99F5-E2E9-4C5B-9815-5B4FE24EE5E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB71AB1-BC1B-4D5C-89C9-116C4B69BA48}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3C275CF-B16D-4F7B-BEA6-5194324531D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E655C04-4023-4D9C-8EE9-72DDF9DE59D0}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D5FAA20-DA6D-4F51-B32C-82153524A89E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC06CF6-8D93-4440-927E-F4C725CEAAE6}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$364</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$365</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W364"/>
+  <dimension ref="A1:W365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17995,10 +17995,10 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="W295" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row outlineLevel="0" r="296">
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="W297" s="0">
         <v>105</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7409</v>
+        <v>7408</v>
       </c>
       <c r="W299" s="0">
         <v>92</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7497</v>
+        <v>7496</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="W301" s="0">
         <v>90</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7685</v>
+        <v>7684</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7784</v>
+        <v>7783</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,10 +18580,10 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7884</v>
+        <v>7882</v>
       </c>
       <c r="W304" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row outlineLevel="0" r="305">
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7982</v>
+        <v>7980</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8071</v>
+        <v>8069</v>
       </c>
       <c r="W306" s="0">
         <v>89</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8175</v>
+        <v>8173</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8283</v>
+        <v>8281</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8398</v>
+        <v>8396</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8514</v>
+        <v>8512</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8604</v>
+        <v>8602</v>
       </c>
       <c r="W311" s="0">
         <v>90</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8720</v>
+        <v>8718</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8809</v>
+        <v>8807</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8916</v>
+        <v>8914</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9018</v>
+        <v>9016</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9116</v>
+        <v>9114</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9193</v>
+        <v>9191</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9299</v>
+        <v>9297</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9478</v>
+        <v>9476</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9568</v>
+        <v>9566</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9649</v>
+        <v>9647</v>
       </c>
       <c r="W322" s="0">
         <v>81</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9748</v>
+        <v>9746</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9834</v>
+        <v>9832</v>
       </c>
       <c r="W324" s="0">
         <v>86</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9942</v>
+        <v>9940</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10017</v>
+        <v>10015</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10088</v>
+        <v>10086</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10171</v>
+        <v>10169</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10246</v>
+        <v>10244</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10329</v>
+        <v>10327</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10391</v>
+        <v>10389</v>
       </c>
       <c r="W331" s="0">
         <v>62</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10462</v>
+        <v>10460</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10517</v>
+        <v>10515</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10567</v>
+        <v>10565</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10615</v>
+        <v>10613</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10666</v>
+        <v>10664</v>
       </c>
       <c r="W336" s="0">
         <v>51</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10709</v>
+        <v>10707</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10748</v>
+        <v>10746</v>
       </c>
       <c r="W338" s="0">
         <v>39</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10797</v>
+        <v>10795</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10844</v>
+        <v>10842</v>
       </c>
       <c r="W340" s="0">
         <v>47</v>
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10902</v>
+        <v>10900</v>
       </c>
       <c r="W341" s="0">
         <v>58</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10928</v>
+        <v>10926</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10964</v>
+        <v>10962</v>
       </c>
       <c r="W343" s="0">
         <v>36</v>
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="W344" s="0">
         <v>39</v>
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="W345" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11070</v>
+        <v>11069</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11096</v>
+        <v>11095</v>
       </c>
       <c r="W347" s="0">
         <v>26</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11128</v>
+        <v>11127</v>
       </c>
       <c r="W348" s="0">
         <v>32</v>
@@ -21508,7 +21508,7 @@
         <v>11155</v>
       </c>
       <c r="W349" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11210</v>
+        <v>11211</v>
       </c>
       <c r="W351" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11247</v>
+        <v>11248</v>
       </c>
       <c r="W352" s="0">
         <v>37</v>
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11275</v>
+        <v>11277</v>
       </c>
       <c r="W353" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11303</v>
+        <v>11305</v>
       </c>
       <c r="W354" s="0">
         <v>28</v>
@@ -21895,7 +21895,7 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11321</v>
+        <v>11323</v>
       </c>
       <c r="W355" s="0">
         <v>18</v>
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11345</v>
+        <v>11347</v>
       </c>
       <c r="W356" s="0">
         <v>24</v>
@@ -22025,7 +22025,7 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11360</v>
+        <v>11362</v>
       </c>
       <c r="W357" s="0">
         <v>15</v>
@@ -22090,7 +22090,7 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11376</v>
+        <v>11378</v>
       </c>
       <c r="W358" s="0">
         <v>16</v>
@@ -22155,10 +22155,10 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11385</v>
+        <v>11388</v>
       </c>
       <c r="W359" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="360">
@@ -22220,10 +22220,10 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11396</v>
+        <v>11401</v>
       </c>
       <c r="W360" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="361">
@@ -22285,7 +22285,7 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11404</v>
+        <v>11409</v>
       </c>
       <c r="W361" s="0">
         <v>8</v>
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11408</v>
+        <v>11416</v>
       </c>
       <c r="W362" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,10 +22415,10 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11410</v>
+        <v>11419</v>
       </c>
       <c r="W363" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="364">
@@ -22480,10 +22480,75 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11410</v>
+        <v>11424</v>
       </c>
       <c r="W364" s="0">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="365">
+      <c r="A365" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B365" s="0">
+        <v>776337</v>
+      </c>
+      <c r="C365" s="0">
+        <v>644</v>
+      </c>
+      <c r="D365" s="0">
+        <v>650084</v>
+      </c>
+      <c r="E365" s="0">
+        <v>420</v>
+      </c>
+      <c r="F365" s="0">
+        <v>126253</v>
+      </c>
+      <c r="G365" s="0">
+        <v>224</v>
+      </c>
+      <c r="H365" s="0">
+        <v>749637</v>
+      </c>
+      <c r="I365" s="0">
+        <v>6047838</v>
+      </c>
+      <c r="J365" s="0">
+        <v>6797475</v>
+      </c>
+      <c r="K365" s="0">
+        <v>7505</v>
+      </c>
+      <c r="L365" s="0">
+        <v>15</v>
+      </c>
+      <c r="M365" s="0">
+        <v>11436</v>
+      </c>
+      <c r="P365" s="0">
+        <v>-392</v>
+      </c>
+      <c r="Q365" s="0">
+        <v>13125</v>
+      </c>
+      <c r="R365" s="0">
+        <v>1021</v>
+      </c>
+      <c r="S365" s="0">
+        <v>751776</v>
+      </c>
+      <c r="T365" s="0">
+        <v>59</v>
+      </c>
+      <c r="U365" s="0">
+        <v>18679</v>
+      </c>
+      <c r="V365" s="0">
+        <v>11426</v>
+      </c>
+      <c r="W365" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -22915,11 +22980,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3193</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3207</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3193</Url>
-      <Description>HJYU5V3E37X6-122305290-3193</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3207</Url>
+      <Description>HJYU5V3E37X6-122305290-3207</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -22942,17 +23007,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A19E8BC-6F79-4D3D-81B6-E9C41B1859DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86341C2B-B2F4-4B89-A73F-ABED080790B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB71AB1-BC1B-4D5C-89C9-116C4B69BA48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AF6EE1-3CE8-4FD4-9794-E30F6DB98A5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E655C04-4023-4D9C-8EE9-72DDF9DE59D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EB4160-B126-43DC-B735-F630BD6AD8C1}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC06CF6-8D93-4440-927E-F4C725CEAAE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCF5EAB-E1B2-443C-A20B-E3E8368DD915}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$365</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$366</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W365"/>
+  <dimension ref="A1:W366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17280,10 +17280,10 @@
         <v>13039</v>
       </c>
       <c r="V284" s="0">
-        <v>6048</v>
+        <v>6047</v>
       </c>
       <c r="W284" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row outlineLevel="0" r="285">
@@ -17345,7 +17345,7 @@
         <v>13101</v>
       </c>
       <c r="V285" s="0">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="W285" s="0">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>13144</v>
       </c>
       <c r="V286" s="0">
-        <v>6213</v>
+        <v>6212</v>
       </c>
       <c r="W286" s="0">
         <v>85</v>
@@ -17475,7 +17475,7 @@
         <v>13206</v>
       </c>
       <c r="V287" s="0">
-        <v>6289</v>
+        <v>6288</v>
       </c>
       <c r="W287" s="0">
         <v>76</v>
@@ -17540,7 +17540,7 @@
         <v>13332</v>
       </c>
       <c r="V288" s="0">
-        <v>6354</v>
+        <v>6353</v>
       </c>
       <c r="W288" s="0">
         <v>65</v>
@@ -17605,7 +17605,7 @@
         <v>13437</v>
       </c>
       <c r="V289" s="0">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="W289" s="0">
         <v>87</v>
@@ -17670,7 +17670,7 @@
         <v>13537</v>
       </c>
       <c r="V290" s="0">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="W290" s="0">
         <v>91</v>
@@ -17735,7 +17735,7 @@
         <v>13626</v>
       </c>
       <c r="V291" s="0">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="W291" s="0">
         <v>96</v>
@@ -17800,7 +17800,7 @@
         <v>13718</v>
       </c>
       <c r="V292" s="0">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="W292" s="0">
         <v>93</v>
@@ -17865,7 +17865,7 @@
         <v>13745</v>
       </c>
       <c r="V293" s="0">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="W293" s="0">
         <v>101</v>
@@ -17930,7 +17930,7 @@
         <v>13796</v>
       </c>
       <c r="V294" s="0">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="W294" s="0">
         <v>104</v>
@@ -17995,7 +17995,7 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="W295" s="0">
         <v>107</v>
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7131</v>
+        <v>7130</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="W297" s="0">
         <v>105</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="W298" s="0">
         <v>80</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7408</v>
+        <v>7407</v>
       </c>
       <c r="W299" s="0">
         <v>92</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7496</v>
+        <v>7495</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7586</v>
+        <v>7585</v>
       </c>
       <c r="W301" s="0">
         <v>90</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7684</v>
+        <v>7683</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7783</v>
+        <v>7782</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7882</v>
+        <v>7881</v>
       </c>
       <c r="W304" s="0">
         <v>99</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7980</v>
+        <v>7979</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8069</v>
+        <v>8068</v>
       </c>
       <c r="W306" s="0">
         <v>89</v>
@@ -18778,7 +18778,7 @@
         <v>8173</v>
       </c>
       <c r="W307" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row outlineLevel="0" r="308">
@@ -19035,10 +19035,10 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8602</v>
+        <v>8603</v>
       </c>
       <c r="W311" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row outlineLevel="0" r="312">
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9016</v>
+        <v>9017</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9114</v>
+        <v>9115</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9191</v>
+        <v>9192</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9297</v>
+        <v>9298</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9389</v>
+        <v>9390</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9476</v>
+        <v>9477</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9566</v>
+        <v>9567</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9647</v>
+        <v>9648</v>
       </c>
       <c r="W322" s="0">
         <v>81</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9746</v>
+        <v>9747</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,10 +19880,10 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9832</v>
+        <v>9834</v>
       </c>
       <c r="W324" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row outlineLevel="0" r="325">
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9940</v>
+        <v>9942</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10015</v>
+        <v>10017</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10086</v>
+        <v>10088</v>
       </c>
       <c r="W327" s="0">
         <v>71</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10169</v>
+        <v>10171</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10244</v>
+        <v>10246</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,10 +20270,10 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10327</v>
+        <v>10328</v>
       </c>
       <c r="W330" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row outlineLevel="0" r="331">
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10389</v>
+        <v>10390</v>
       </c>
       <c r="W331" s="0">
         <v>62</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10460</v>
+        <v>10461</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10515</v>
+        <v>10516</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10565</v>
+        <v>10566</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10613</v>
+        <v>10614</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,10 +20660,10 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10664</v>
+        <v>10666</v>
       </c>
       <c r="W336" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row outlineLevel="0" r="337">
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10707</v>
+        <v>10709</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10746</v>
+        <v>10748</v>
       </c>
       <c r="W338" s="0">
         <v>39</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10795</v>
+        <v>10797</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10842</v>
+        <v>10845</v>
       </c>
       <c r="W340" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10900</v>
+        <v>10904</v>
       </c>
       <c r="W341" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10926</v>
+        <v>10930</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10962</v>
+        <v>10967</v>
       </c>
       <c r="W343" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11001</v>
+        <v>11006</v>
       </c>
       <c r="W344" s="0">
         <v>39</v>
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11035</v>
+        <v>11042</v>
       </c>
       <c r="W345" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11069</v>
+        <v>11076</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11095</v>
+        <v>11102</v>
       </c>
       <c r="W347" s="0">
         <v>26</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11127</v>
+        <v>11134</v>
       </c>
       <c r="W348" s="0">
         <v>32</v>
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11155</v>
+        <v>11163</v>
       </c>
       <c r="W349" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11181</v>
+        <v>11189</v>
       </c>
       <c r="W350" s="0">
         <v>26</v>
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11211</v>
+        <v>11219</v>
       </c>
       <c r="W351" s="0">
         <v>30</v>
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11248</v>
+        <v>11256</v>
       </c>
       <c r="W352" s="0">
         <v>37</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11277</v>
+        <v>11285</v>
       </c>
       <c r="W353" s="0">
         <v>29</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11305</v>
+        <v>11313</v>
       </c>
       <c r="W354" s="0">
         <v>28</v>
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11323</v>
+        <v>11332</v>
       </c>
       <c r="W355" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11347</v>
+        <v>11356</v>
       </c>
       <c r="W356" s="0">
         <v>24</v>
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11362</v>
+        <v>11372</v>
       </c>
       <c r="W357" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11378</v>
+        <v>11389</v>
       </c>
       <c r="W358" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,7 +22155,7 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11388</v>
+        <v>11399</v>
       </c>
       <c r="W359" s="0">
         <v>10</v>
@@ -22220,7 +22220,7 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11401</v>
+        <v>11412</v>
       </c>
       <c r="W360" s="0">
         <v>13</v>
@@ -22285,7 +22285,7 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11409</v>
+        <v>11420</v>
       </c>
       <c r="W361" s="0">
         <v>8</v>
@@ -22350,7 +22350,7 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11416</v>
+        <v>11427</v>
       </c>
       <c r="W362" s="0">
         <v>7</v>
@@ -22415,10 +22415,10 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11419</v>
+        <v>11431</v>
       </c>
       <c r="W363" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="364">
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11424</v>
+        <v>11440</v>
       </c>
       <c r="W364" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,10 +22545,75 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11426</v>
+        <v>11448</v>
       </c>
       <c r="W365" s="0">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="366">
+      <c r="A366" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B366" s="0">
+        <v>777935</v>
+      </c>
+      <c r="C366" s="0">
+        <v>1598</v>
+      </c>
+      <c r="D366" s="0">
+        <v>651124</v>
+      </c>
+      <c r="E366" s="0">
+        <v>1040</v>
+      </c>
+      <c r="F366" s="0">
+        <v>126811</v>
+      </c>
+      <c r="G366" s="0">
+        <v>558</v>
+      </c>
+      <c r="H366" s="0">
+        <v>750805</v>
+      </c>
+      <c r="I366" s="0">
+        <v>6066316</v>
+      </c>
+      <c r="J366" s="0">
+        <v>6817121</v>
+      </c>
+      <c r="K366" s="0">
+        <v>19646</v>
+      </c>
+      <c r="L366" s="0">
+        <v>23</v>
+      </c>
+      <c r="M366" s="0">
+        <v>11459</v>
+      </c>
+      <c r="P366" s="0">
+        <v>385</v>
+      </c>
+      <c r="Q366" s="0">
+        <v>13510</v>
+      </c>
+      <c r="R366" s="0">
+        <v>1190</v>
+      </c>
+      <c r="S366" s="0">
+        <v>752966</v>
+      </c>
+      <c r="T366" s="0">
+        <v>63</v>
+      </c>
+      <c r="U366" s="0">
+        <v>18742</v>
+      </c>
+      <c r="V366" s="0">
+        <v>11449</v>
+      </c>
+      <c r="W366" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22980,11 +23045,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3207</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3218</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3207</Url>
-      <Description>HJYU5V3E37X6-122305290-3207</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3218</Url>
+      <Description>HJYU5V3E37X6-122305290-3218</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23007,17 +23072,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86341C2B-B2F4-4B89-A73F-ABED080790B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3D34A81-8ABF-4D4C-90AC-EF00B870E8BA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AF6EE1-3CE8-4FD4-9794-E30F6DB98A5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9EFF93C-9AA8-46C4-AF9F-865D9331C07D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EB4160-B126-43DC-B735-F630BD6AD8C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{060333E8-0BFC-4599-AA1B-36EBEF73873B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCF5EAB-E1B2-443C-A20B-E3E8368DD915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DEF7A73-DC79-4BD2-B940-0CF171EAAB62}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$365</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$367</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W365"/>
+  <dimension ref="A1:W367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16630,10 +16630,10 @@
         <v>12209</v>
       </c>
       <c r="V274" s="0">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="W274" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row outlineLevel="0" r="275">
@@ -16695,7 +16695,7 @@
         <v>12310</v>
       </c>
       <c r="V275" s="0">
-        <v>5372</v>
+        <v>5373</v>
       </c>
       <c r="W275" s="0">
         <v>67</v>
@@ -16760,7 +16760,7 @@
         <v>12410</v>
       </c>
       <c r="V276" s="0">
-        <v>5444</v>
+        <v>5445</v>
       </c>
       <c r="W276" s="0">
         <v>72</v>
@@ -16825,7 +16825,7 @@
         <v>12488</v>
       </c>
       <c r="V277" s="0">
-        <v>5527</v>
+        <v>5528</v>
       </c>
       <c r="W277" s="0">
         <v>83</v>
@@ -16890,7 +16890,7 @@
         <v>12558</v>
       </c>
       <c r="V278" s="0">
-        <v>5605</v>
+        <v>5606</v>
       </c>
       <c r="W278" s="0">
         <v>78</v>
@@ -16955,7 +16955,7 @@
         <v>12593</v>
       </c>
       <c r="V279" s="0">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="W279" s="0">
         <v>86</v>
@@ -17020,7 +17020,7 @@
         <v>12638</v>
       </c>
       <c r="V280" s="0">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="W280" s="0">
         <v>71</v>
@@ -17085,7 +17085,7 @@
         <v>12777</v>
       </c>
       <c r="V281" s="0">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="W281" s="0">
         <v>79</v>
@@ -17150,7 +17150,7 @@
         <v>12862</v>
       </c>
       <c r="V282" s="0">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="W282" s="0">
         <v>62</v>
@@ -17215,7 +17215,7 @@
         <v>12952</v>
       </c>
       <c r="V283" s="0">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="W283" s="0">
         <v>76</v>
@@ -17283,7 +17283,7 @@
         <v>6048</v>
       </c>
       <c r="W284" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row outlineLevel="0" r="285">
@@ -19035,10 +19035,10 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8602</v>
+        <v>8603</v>
       </c>
       <c r="W311" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row outlineLevel="0" r="312">
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8718</v>
+        <v>8719</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8807</v>
+        <v>8808</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9016</v>
+        <v>9017</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9114</v>
+        <v>9115</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9191</v>
+        <v>9192</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9297</v>
+        <v>9298</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9389</v>
+        <v>9390</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9476</v>
+        <v>9477</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9566</v>
+        <v>9567</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9647</v>
+        <v>9648</v>
       </c>
       <c r="W322" s="0">
         <v>81</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9746</v>
+        <v>9747</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,10 +19880,10 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9832</v>
+        <v>9834</v>
       </c>
       <c r="W324" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row outlineLevel="0" r="325">
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9940</v>
+        <v>9942</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10015</v>
+        <v>10017</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,10 +20075,10 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10086</v>
+        <v>10089</v>
       </c>
       <c r="W327" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row outlineLevel="0" r="328">
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10169</v>
+        <v>10172</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10244</v>
+        <v>10247</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10327</v>
+        <v>10330</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10389</v>
+        <v>10392</v>
       </c>
       <c r="W331" s="0">
         <v>62</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10460</v>
+        <v>10463</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10515</v>
+        <v>10518</v>
       </c>
       <c r="W333" s="0">
         <v>55</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10565</v>
+        <v>10568</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10613</v>
+        <v>10616</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,10 +20660,10 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10664</v>
+        <v>10668</v>
       </c>
       <c r="W336" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row outlineLevel="0" r="337">
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10707</v>
+        <v>10711</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,10 +20790,10 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10746</v>
+        <v>10751</v>
       </c>
       <c r="W338" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row outlineLevel="0" r="339">
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10795</v>
+        <v>10800</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10842</v>
+        <v>10848</v>
       </c>
       <c r="W340" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,10 +20985,10 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10900</v>
+        <v>10907</v>
       </c>
       <c r="W341" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row outlineLevel="0" r="342">
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10926</v>
+        <v>10933</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,10 +21115,10 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10962</v>
+        <v>10970</v>
       </c>
       <c r="W343" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row outlineLevel="0" r="344">
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11001</v>
+        <v>11009</v>
       </c>
       <c r="W344" s="0">
         <v>39</v>
@@ -21245,10 +21245,10 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11035</v>
+        <v>11045</v>
       </c>
       <c r="W345" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11069</v>
+        <v>11079</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11095</v>
+        <v>11105</v>
       </c>
       <c r="W347" s="0">
         <v>26</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11127</v>
+        <v>11137</v>
       </c>
       <c r="W348" s="0">
         <v>32</v>
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11155</v>
+        <v>11166</v>
       </c>
       <c r="W349" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11181</v>
+        <v>11192</v>
       </c>
       <c r="W350" s="0">
         <v>26</v>
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11211</v>
+        <v>11222</v>
       </c>
       <c r="W351" s="0">
         <v>30</v>
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11248</v>
+        <v>11259</v>
       </c>
       <c r="W352" s="0">
         <v>37</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11277</v>
+        <v>11288</v>
       </c>
       <c r="W353" s="0">
         <v>29</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11305</v>
+        <v>11316</v>
       </c>
       <c r="W354" s="0">
         <v>28</v>
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11323</v>
+        <v>11335</v>
       </c>
       <c r="W355" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11347</v>
+        <v>11359</v>
       </c>
       <c r="W356" s="0">
         <v>24</v>
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11362</v>
+        <v>11376</v>
       </c>
       <c r="W357" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11378</v>
+        <v>11397</v>
       </c>
       <c r="W358" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,10 +22155,10 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11388</v>
+        <v>11412</v>
       </c>
       <c r="W359" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row outlineLevel="0" r="360">
@@ -22220,10 +22220,10 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11401</v>
+        <v>11433</v>
       </c>
       <c r="W360" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="361">
@@ -22285,10 +22285,10 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11409</v>
+        <v>11444</v>
       </c>
       <c r="W361" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="362">
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11416</v>
+        <v>11456</v>
       </c>
       <c r="W362" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,10 +22415,10 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11419</v>
+        <v>11467</v>
       </c>
       <c r="W363" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="364">
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11424</v>
+        <v>11478</v>
       </c>
       <c r="W364" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,10 +22545,140 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11426</v>
+        <v>11487</v>
       </c>
       <c r="W365" s="0">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="366">
+      <c r="A366" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B366" s="0">
+        <v>777935</v>
+      </c>
+      <c r="C366" s="0">
+        <v>1598</v>
+      </c>
+      <c r="D366" s="0">
+        <v>651124</v>
+      </c>
+      <c r="E366" s="0">
+        <v>1040</v>
+      </c>
+      <c r="F366" s="0">
+        <v>126811</v>
+      </c>
+      <c r="G366" s="0">
+        <v>558</v>
+      </c>
+      <c r="H366" s="0">
+        <v>750805</v>
+      </c>
+      <c r="I366" s="0">
+        <v>6066316</v>
+      </c>
+      <c r="J366" s="0">
+        <v>6817121</v>
+      </c>
+      <c r="K366" s="0">
+        <v>19646</v>
+      </c>
+      <c r="L366" s="0">
+        <v>23</v>
+      </c>
+      <c r="M366" s="0">
+        <v>11459</v>
+      </c>
+      <c r="P366" s="0">
+        <v>385</v>
+      </c>
+      <c r="Q366" s="0">
+        <v>13510</v>
+      </c>
+      <c r="R366" s="0">
+        <v>1190</v>
+      </c>
+      <c r="S366" s="0">
+        <v>752966</v>
+      </c>
+      <c r="T366" s="0">
+        <v>63</v>
+      </c>
+      <c r="U366" s="0">
+        <v>18742</v>
+      </c>
+      <c r="V366" s="0">
+        <v>11490</v>
+      </c>
+      <c r="W366" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="367">
+      <c r="A367" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B367" s="0">
+        <v>779449</v>
+      </c>
+      <c r="C367" s="0">
+        <v>1514</v>
+      </c>
+      <c r="D367" s="0">
+        <v>652083</v>
+      </c>
+      <c r="E367" s="0">
+        <v>959</v>
+      </c>
+      <c r="F367" s="0">
+        <v>127366</v>
+      </c>
+      <c r="G367" s="0">
+        <v>555</v>
+      </c>
+      <c r="H367" s="0">
+        <v>751634</v>
+      </c>
+      <c r="I367" s="0">
+        <v>6083248</v>
+      </c>
+      <c r="J367" s="0">
+        <v>6834882</v>
+      </c>
+      <c r="K367" s="0">
+        <v>17761</v>
+      </c>
+      <c r="L367" s="0">
+        <v>42</v>
+      </c>
+      <c r="M367" s="0">
+        <v>11501</v>
+      </c>
+      <c r="P367" s="0">
+        <v>-27</v>
+      </c>
+      <c r="Q367" s="0">
+        <v>13483</v>
+      </c>
+      <c r="R367" s="0">
+        <v>1499</v>
+      </c>
+      <c r="S367" s="0">
+        <v>754465</v>
+      </c>
+      <c r="T367" s="0">
+        <v>37</v>
+      </c>
+      <c r="U367" s="0">
+        <v>18779</v>
+      </c>
+      <c r="V367" s="0">
+        <v>11490</v>
+      </c>
+      <c r="W367" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22980,11 +23110,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3207</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3230</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3207</Url>
-      <Description>HJYU5V3E37X6-122305290-3207</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3230</Url>
+      <Description>HJYU5V3E37X6-122305290-3230</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23007,17 +23137,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86341C2B-B2F4-4B89-A73F-ABED080790B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A14A894-D1E4-40A2-86AE-A5D4AC6BFD16}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AF6EE1-3CE8-4FD4-9794-E30F6DB98A5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5654362B-0457-4691-934D-C539918B7A17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99EB4160-B126-43DC-B735-F630BD6AD8C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9380787E-13DB-4129-802B-EEAC6739635C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCF5EAB-E1B2-443C-A20B-E3E8368DD915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007D0581-6C85-4846-B12B-82BB86455CCD}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$367</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$368</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W367"/>
+  <dimension ref="A1:W368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18190,10 +18190,10 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7316</v>
+        <v>7317</v>
       </c>
       <c r="W298" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row outlineLevel="0" r="299">
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7408</v>
+        <v>7409</v>
       </c>
       <c r="W299" s="0">
         <v>92</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7496</v>
+        <v>7497</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7586</v>
+        <v>7587</v>
       </c>
       <c r="W301" s="0">
         <v>90</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7684</v>
+        <v>7685</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7783</v>
+        <v>7784</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7882</v>
+        <v>7883</v>
       </c>
       <c r="W304" s="0">
         <v>99</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8069</v>
+        <v>8070</v>
       </c>
       <c r="W306" s="0">
         <v>89</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8173</v>
+        <v>8174</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8281</v>
+        <v>8282</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8396</v>
+        <v>8397</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8512</v>
+        <v>8513</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8603</v>
+        <v>8604</v>
       </c>
       <c r="W311" s="0">
         <v>91</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8719</v>
+        <v>8720</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8808</v>
+        <v>8809</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8915</v>
+        <v>8916</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9017</v>
+        <v>9018</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,7 +19360,7 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9115</v>
+        <v>9116</v>
       </c>
       <c r="W316" s="0">
         <v>98</v>
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9192</v>
+        <v>9193</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9298</v>
+        <v>9299</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9390</v>
+        <v>9391</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9477</v>
+        <v>9478</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9567</v>
+        <v>9568</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19753,7 +19753,7 @@
         <v>9648</v>
       </c>
       <c r="W322" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row outlineLevel="0" r="323">
@@ -20465,10 +20465,10 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10518</v>
+        <v>10517</v>
       </c>
       <c r="W333" s="0">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row outlineLevel="0" r="334">
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10568</v>
+        <v>10567</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10616</v>
+        <v>10615</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10668</v>
+        <v>10667</v>
       </c>
       <c r="W336" s="0">
         <v>52</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10711</v>
+        <v>10710</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10751</v>
+        <v>10750</v>
       </c>
       <c r="W338" s="0">
         <v>40</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10800</v>
+        <v>10799</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,10 +20920,10 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10848</v>
+        <v>10849</v>
       </c>
       <c r="W340" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row outlineLevel="0" r="341">
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10907</v>
+        <v>10908</v>
       </c>
       <c r="W341" s="0">
         <v>59</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10933</v>
+        <v>10934</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10970</v>
+        <v>10971</v>
       </c>
       <c r="W343" s="0">
         <v>37</v>
@@ -21180,10 +21180,10 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11009</v>
+        <v>11011</v>
       </c>
       <c r="W344" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row outlineLevel="0" r="345">
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11045</v>
+        <v>11047</v>
       </c>
       <c r="W345" s="0">
         <v>36</v>
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11079</v>
+        <v>11081</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,10 +21375,10 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11105</v>
+        <v>11108</v>
       </c>
       <c r="W347" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="348">
@@ -21440,10 +21440,10 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11137</v>
+        <v>11141</v>
       </c>
       <c r="W348" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row outlineLevel="0" r="349">
@@ -21505,10 +21505,10 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11166</v>
+        <v>11172</v>
       </c>
       <c r="W349" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="350">
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11192</v>
+        <v>11198</v>
       </c>
       <c r="W350" s="0">
         <v>26</v>
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11222</v>
+        <v>11228</v>
       </c>
       <c r="W351" s="0">
         <v>30</v>
@@ -21700,10 +21700,10 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11259</v>
+        <v>11267</v>
       </c>
       <c r="W352" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row outlineLevel="0" r="353">
@@ -21765,10 +21765,10 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11288</v>
+        <v>11297</v>
       </c>
       <c r="W353" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="354">
@@ -21830,10 +21830,10 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11316</v>
+        <v>11327</v>
       </c>
       <c r="W354" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row outlineLevel="0" r="355">
@@ -21895,10 +21895,10 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11335</v>
+        <v>11347</v>
       </c>
       <c r="W355" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row outlineLevel="0" r="356">
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11359</v>
+        <v>11375</v>
       </c>
       <c r="W356" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11376</v>
+        <v>11396</v>
       </c>
       <c r="W357" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,10 +22090,10 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11397</v>
+        <v>11418</v>
       </c>
       <c r="W358" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="359">
@@ -22155,10 +22155,10 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11412</v>
+        <v>11435</v>
       </c>
       <c r="W359" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row outlineLevel="0" r="360">
@@ -22220,10 +22220,10 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11433</v>
+        <v>11457</v>
       </c>
       <c r="W360" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="361">
@@ -22285,7 +22285,7 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11444</v>
+        <v>11468</v>
       </c>
       <c r="W361" s="0">
         <v>11</v>
@@ -22350,7 +22350,7 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11456</v>
+        <v>11480</v>
       </c>
       <c r="W362" s="0">
         <v>12</v>
@@ -22415,10 +22415,10 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11467</v>
+        <v>11492</v>
       </c>
       <c r="W363" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="364">
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11478</v>
+        <v>11504</v>
       </c>
       <c r="W364" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,7 +22545,7 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11487</v>
+        <v>11513</v>
       </c>
       <c r="W365" s="0">
         <v>9</v>
@@ -22610,10 +22610,10 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11490</v>
+        <v>11520</v>
       </c>
       <c r="W366" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="367">
@@ -22675,10 +22675,75 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11490</v>
+        <v>11524</v>
       </c>
       <c r="W367" s="0">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="368">
+      <c r="A368" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B368" s="0">
+        <v>780894</v>
+      </c>
+      <c r="C368" s="0">
+        <v>1445</v>
+      </c>
+      <c r="D368" s="0">
+        <v>653053</v>
+      </c>
+      <c r="E368" s="0">
+        <v>970</v>
+      </c>
+      <c r="F368" s="0">
+        <v>127841</v>
+      </c>
+      <c r="G368" s="0">
+        <v>475</v>
+      </c>
+      <c r="H368" s="0">
+        <v>752764</v>
+      </c>
+      <c r="I368" s="0">
+        <v>6103817</v>
+      </c>
+      <c r="J368" s="0">
+        <v>6856581</v>
+      </c>
+      <c r="K368" s="0">
+        <v>21699</v>
+      </c>
+      <c r="L368" s="0">
+        <v>33</v>
+      </c>
+      <c r="M368" s="0">
+        <v>11534</v>
+      </c>
+      <c r="P368" s="0">
+        <v>403</v>
+      </c>
+      <c r="Q368" s="0">
+        <v>13886</v>
+      </c>
+      <c r="R368" s="0">
+        <v>1009</v>
+      </c>
+      <c r="S368" s="0">
+        <v>755474</v>
+      </c>
+      <c r="T368" s="0">
+        <v>58</v>
+      </c>
+      <c r="U368" s="0">
+        <v>18837</v>
+      </c>
+      <c r="V368" s="0">
+        <v>11525</v>
+      </c>
+      <c r="W368" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23110,11 +23175,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3230</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3240</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3230</Url>
-      <Description>HJYU5V3E37X6-122305290-3230</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3240</Url>
+      <Description>HJYU5V3E37X6-122305290-3240</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23137,17 +23202,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A14A894-D1E4-40A2-86AE-A5D4AC6BFD16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141572DF-3B99-44E2-9666-F6B0F14E0B18}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5654362B-0457-4691-934D-C539918B7A17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609F483F-67C0-4622-BA2E-33AB3D549ACF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9380787E-13DB-4129-802B-EEAC6739635C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB8D0B5-C8EA-4FB0-94E0-64F67D55ED4B}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{007D0581-6C85-4846-B12B-82BB86455CCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D72C9FDE-863C-4BC4-B5D3-3C9D73A29243}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$368</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$369</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W368"/>
+  <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11228</v>
+        <v>11229</v>
       </c>
       <c r="W351" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11267</v>
+        <v>11268</v>
       </c>
       <c r="W352" s="0">
         <v>39</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11297</v>
+        <v>11298</v>
       </c>
       <c r="W353" s="0">
         <v>30</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11327</v>
+        <v>11328</v>
       </c>
       <c r="W354" s="0">
         <v>30</v>
@@ -21895,7 +21895,7 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11347</v>
+        <v>11348</v>
       </c>
       <c r="W355" s="0">
         <v>20</v>
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11375</v>
+        <v>11376</v>
       </c>
       <c r="W356" s="0">
         <v>28</v>
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11396</v>
+        <v>11398</v>
       </c>
       <c r="W357" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,7 +22090,7 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11418</v>
+        <v>11420</v>
       </c>
       <c r="W358" s="0">
         <v>22</v>
@@ -22155,7 +22155,7 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11435</v>
+        <v>11437</v>
       </c>
       <c r="W359" s="0">
         <v>17</v>
@@ -22220,10 +22220,10 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11457</v>
+        <v>11460</v>
       </c>
       <c r="W360" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="361">
@@ -22285,10 +22285,10 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11468</v>
+        <v>11472</v>
       </c>
       <c r="W361" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="362">
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11480</v>
+        <v>11485</v>
       </c>
       <c r="W362" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,7 +22415,7 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11492</v>
+        <v>11497</v>
       </c>
       <c r="W363" s="0">
         <v>12</v>
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11504</v>
+        <v>11510</v>
       </c>
       <c r="W364" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,10 +22545,10 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11513</v>
+        <v>11520</v>
       </c>
       <c r="W365" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="366">
@@ -22610,7 +22610,7 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11520</v>
+        <v>11527</v>
       </c>
       <c r="W366" s="0">
         <v>7</v>
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11524</v>
+        <v>11533</v>
       </c>
       <c r="W367" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,75 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11525</v>
+        <v>11534</v>
       </c>
       <c r="W368" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="369">
+      <c r="A369" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B369" s="0">
+        <v>782206</v>
+      </c>
+      <c r="C369" s="0">
+        <v>1312</v>
+      </c>
+      <c r="D369" s="0">
+        <v>653905</v>
+      </c>
+      <c r="E369" s="0">
+        <v>852</v>
+      </c>
+      <c r="F369" s="0">
+        <v>128301</v>
+      </c>
+      <c r="G369" s="0">
+        <v>460</v>
+      </c>
+      <c r="H369" s="0">
+        <v>753695</v>
+      </c>
+      <c r="I369" s="0">
+        <v>6119050</v>
+      </c>
+      <c r="J369" s="0">
+        <v>6872745</v>
+      </c>
+      <c r="K369" s="0">
+        <v>16164</v>
+      </c>
+      <c r="L369" s="0">
+        <v>9</v>
+      </c>
+      <c r="M369" s="0">
+        <v>11543</v>
+      </c>
+      <c r="P369" s="0">
+        <v>-16</v>
+      </c>
+      <c r="Q369" s="0">
+        <v>13870</v>
+      </c>
+      <c r="R369" s="0">
+        <v>1319</v>
+      </c>
+      <c r="S369" s="0">
+        <v>756793</v>
+      </c>
+      <c r="T369" s="0">
+        <v>33</v>
+      </c>
+      <c r="U369" s="0">
+        <v>18870</v>
+      </c>
+      <c r="V369" s="0">
+        <v>11534</v>
+      </c>
+      <c r="W369" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23175,11 +23240,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3240</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3251</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3240</Url>
-      <Description>HJYU5V3E37X6-122305290-3240</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3251</Url>
+      <Description>HJYU5V3E37X6-122305290-3251</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23202,17 +23267,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141572DF-3B99-44E2-9666-F6B0F14E0B18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1097D6D4-BFCA-4B9F-AD77-8E14824D00A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609F483F-67C0-4622-BA2E-33AB3D549ACF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27E6A848-473D-4535-99BE-E487990FA4EE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB8D0B5-C8EA-4FB0-94E0-64F67D55ED4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AD7A6B-A444-4F0C-8811-632E5656E278}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D72C9FDE-863C-4BC4-B5D3-3C9D73A29243}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09CA55E0-AB10-4299-AF19-544A1AB8EE73}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$368</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$370</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W368"/>
+  <dimension ref="A1:W370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17995,10 +17995,10 @@
         <v>13876</v>
       </c>
       <c r="V295" s="0">
-        <v>7033</v>
+        <v>7034</v>
       </c>
       <c r="W295" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row outlineLevel="0" r="296">
@@ -18060,7 +18060,7 @@
         <v>13970</v>
       </c>
       <c r="V296" s="0">
-        <v>7131</v>
+        <v>7132</v>
       </c>
       <c r="W296" s="0">
         <v>98</v>
@@ -18125,7 +18125,7 @@
         <v>14044</v>
       </c>
       <c r="V297" s="0">
-        <v>7236</v>
+        <v>7237</v>
       </c>
       <c r="W297" s="0">
         <v>105</v>
@@ -18190,7 +18190,7 @@
         <v>14069</v>
       </c>
       <c r="V298" s="0">
-        <v>7317</v>
+        <v>7318</v>
       </c>
       <c r="W298" s="0">
         <v>81</v>
@@ -18255,7 +18255,7 @@
         <v>14071</v>
       </c>
       <c r="V299" s="0">
-        <v>7409</v>
+        <v>7410</v>
       </c>
       <c r="W299" s="0">
         <v>92</v>
@@ -18320,7 +18320,7 @@
         <v>14091</v>
       </c>
       <c r="V300" s="0">
-        <v>7497</v>
+        <v>7498</v>
       </c>
       <c r="W300" s="0">
         <v>88</v>
@@ -18385,7 +18385,7 @@
         <v>14156</v>
       </c>
       <c r="V301" s="0">
-        <v>7587</v>
+        <v>7588</v>
       </c>
       <c r="W301" s="0">
         <v>90</v>
@@ -18450,7 +18450,7 @@
         <v>14276</v>
       </c>
       <c r="V302" s="0">
-        <v>7685</v>
+        <v>7686</v>
       </c>
       <c r="W302" s="0">
         <v>98</v>
@@ -18515,7 +18515,7 @@
         <v>14417</v>
       </c>
       <c r="V303" s="0">
-        <v>7784</v>
+        <v>7785</v>
       </c>
       <c r="W303" s="0">
         <v>99</v>
@@ -18580,7 +18580,7 @@
         <v>14531</v>
       </c>
       <c r="V304" s="0">
-        <v>7883</v>
+        <v>7884</v>
       </c>
       <c r="W304" s="0">
         <v>99</v>
@@ -18645,7 +18645,7 @@
         <v>14579</v>
       </c>
       <c r="V305" s="0">
-        <v>7981</v>
+        <v>7982</v>
       </c>
       <c r="W305" s="0">
         <v>98</v>
@@ -18710,7 +18710,7 @@
         <v>14607</v>
       </c>
       <c r="V306" s="0">
-        <v>8070</v>
+        <v>8071</v>
       </c>
       <c r="W306" s="0">
         <v>89</v>
@@ -18775,7 +18775,7 @@
         <v>14648</v>
       </c>
       <c r="V307" s="0">
-        <v>8174</v>
+        <v>8175</v>
       </c>
       <c r="W307" s="0">
         <v>104</v>
@@ -18840,7 +18840,7 @@
         <v>14760</v>
       </c>
       <c r="V308" s="0">
-        <v>8282</v>
+        <v>8283</v>
       </c>
       <c r="W308" s="0">
         <v>108</v>
@@ -18905,7 +18905,7 @@
         <v>14835</v>
       </c>
       <c r="V309" s="0">
-        <v>8397</v>
+        <v>8398</v>
       </c>
       <c r="W309" s="0">
         <v>115</v>
@@ -18970,7 +18970,7 @@
         <v>14935</v>
       </c>
       <c r="V310" s="0">
-        <v>8513</v>
+        <v>8514</v>
       </c>
       <c r="W310" s="0">
         <v>116</v>
@@ -19035,7 +19035,7 @@
         <v>15068</v>
       </c>
       <c r="V311" s="0">
-        <v>8604</v>
+        <v>8605</v>
       </c>
       <c r="W311" s="0">
         <v>91</v>
@@ -19100,7 +19100,7 @@
         <v>15178</v>
       </c>
       <c r="V312" s="0">
-        <v>8720</v>
+        <v>8721</v>
       </c>
       <c r="W312" s="0">
         <v>116</v>
@@ -19165,7 +19165,7 @@
         <v>15254</v>
       </c>
       <c r="V313" s="0">
-        <v>8809</v>
+        <v>8810</v>
       </c>
       <c r="W313" s="0">
         <v>89</v>
@@ -19230,7 +19230,7 @@
         <v>15307</v>
       </c>
       <c r="V314" s="0">
-        <v>8916</v>
+        <v>8917</v>
       </c>
       <c r="W314" s="0">
         <v>107</v>
@@ -19295,7 +19295,7 @@
         <v>15359</v>
       </c>
       <c r="V315" s="0">
-        <v>9018</v>
+        <v>9019</v>
       </c>
       <c r="W315" s="0">
         <v>102</v>
@@ -19360,10 +19360,10 @@
         <v>15510</v>
       </c>
       <c r="V316" s="0">
-        <v>9116</v>
+        <v>9118</v>
       </c>
       <c r="W316" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row outlineLevel="0" r="317">
@@ -19425,7 +19425,7 @@
         <v>15655</v>
       </c>
       <c r="V317" s="0">
-        <v>9193</v>
+        <v>9195</v>
       </c>
       <c r="W317" s="0">
         <v>77</v>
@@ -19490,7 +19490,7 @@
         <v>15753</v>
       </c>
       <c r="V318" s="0">
-        <v>9299</v>
+        <v>9301</v>
       </c>
       <c r="W318" s="0">
         <v>106</v>
@@ -19555,7 +19555,7 @@
         <v>15873</v>
       </c>
       <c r="V319" s="0">
-        <v>9391</v>
+        <v>9393</v>
       </c>
       <c r="W319" s="0">
         <v>92</v>
@@ -19620,7 +19620,7 @@
         <v>15953</v>
       </c>
       <c r="V320" s="0">
-        <v>9478</v>
+        <v>9480</v>
       </c>
       <c r="W320" s="0">
         <v>87</v>
@@ -19685,7 +19685,7 @@
         <v>16018</v>
       </c>
       <c r="V321" s="0">
-        <v>9568</v>
+        <v>9570</v>
       </c>
       <c r="W321" s="0">
         <v>90</v>
@@ -19750,7 +19750,7 @@
         <v>16061</v>
       </c>
       <c r="V322" s="0">
-        <v>9648</v>
+        <v>9650</v>
       </c>
       <c r="W322" s="0">
         <v>80</v>
@@ -19815,7 +19815,7 @@
         <v>16134</v>
       </c>
       <c r="V323" s="0">
-        <v>9747</v>
+        <v>9749</v>
       </c>
       <c r="W323" s="0">
         <v>99</v>
@@ -19880,7 +19880,7 @@
         <v>16233</v>
       </c>
       <c r="V324" s="0">
-        <v>9834</v>
+        <v>9836</v>
       </c>
       <c r="W324" s="0">
         <v>87</v>
@@ -19945,7 +19945,7 @@
         <v>16344</v>
       </c>
       <c r="V325" s="0">
-        <v>9942</v>
+        <v>9944</v>
       </c>
       <c r="W325" s="0">
         <v>108</v>
@@ -20010,7 +20010,7 @@
         <v>16422</v>
       </c>
       <c r="V326" s="0">
-        <v>10017</v>
+        <v>10019</v>
       </c>
       <c r="W326" s="0">
         <v>75</v>
@@ -20075,7 +20075,7 @@
         <v>16481</v>
       </c>
       <c r="V327" s="0">
-        <v>10089</v>
+        <v>10091</v>
       </c>
       <c r="W327" s="0">
         <v>72</v>
@@ -20140,7 +20140,7 @@
         <v>16504</v>
       </c>
       <c r="V328" s="0">
-        <v>10172</v>
+        <v>10174</v>
       </c>
       <c r="W328" s="0">
         <v>83</v>
@@ -20205,7 +20205,7 @@
         <v>16560</v>
       </c>
       <c r="V329" s="0">
-        <v>10247</v>
+        <v>10249</v>
       </c>
       <c r="W329" s="0">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>16707</v>
       </c>
       <c r="V330" s="0">
-        <v>10330</v>
+        <v>10332</v>
       </c>
       <c r="W330" s="0">
         <v>83</v>
@@ -20335,7 +20335,7 @@
         <v>16823</v>
       </c>
       <c r="V331" s="0">
-        <v>10392</v>
+        <v>10394</v>
       </c>
       <c r="W331" s="0">
         <v>62</v>
@@ -20400,7 +20400,7 @@
         <v>16938</v>
       </c>
       <c r="V332" s="0">
-        <v>10463</v>
+        <v>10465</v>
       </c>
       <c r="W332" s="0">
         <v>71</v>
@@ -20465,7 +20465,7 @@
         <v>17050</v>
       </c>
       <c r="V333" s="0">
-        <v>10517</v>
+        <v>10519</v>
       </c>
       <c r="W333" s="0">
         <v>54</v>
@@ -20530,7 +20530,7 @@
         <v>17092</v>
       </c>
       <c r="V334" s="0">
-        <v>10567</v>
+        <v>10569</v>
       </c>
       <c r="W334" s="0">
         <v>50</v>
@@ -20595,7 +20595,7 @@
         <v>17120</v>
       </c>
       <c r="V335" s="0">
-        <v>10615</v>
+        <v>10617</v>
       </c>
       <c r="W335" s="0">
         <v>48</v>
@@ -20660,7 +20660,7 @@
         <v>17172</v>
       </c>
       <c r="V336" s="0">
-        <v>10667</v>
+        <v>10669</v>
       </c>
       <c r="W336" s="0">
         <v>52</v>
@@ -20725,7 +20725,7 @@
         <v>17276</v>
       </c>
       <c r="V337" s="0">
-        <v>10710</v>
+        <v>10712</v>
       </c>
       <c r="W337" s="0">
         <v>43</v>
@@ -20790,7 +20790,7 @@
         <v>17362</v>
       </c>
       <c r="V338" s="0">
-        <v>10750</v>
+        <v>10752</v>
       </c>
       <c r="W338" s="0">
         <v>40</v>
@@ -20855,7 +20855,7 @@
         <v>17469</v>
       </c>
       <c r="V339" s="0">
-        <v>10799</v>
+        <v>10801</v>
       </c>
       <c r="W339" s="0">
         <v>49</v>
@@ -20920,7 +20920,7 @@
         <v>17564</v>
       </c>
       <c r="V340" s="0">
-        <v>10849</v>
+        <v>10851</v>
       </c>
       <c r="W340" s="0">
         <v>50</v>
@@ -20985,7 +20985,7 @@
         <v>17642</v>
       </c>
       <c r="V341" s="0">
-        <v>10908</v>
+        <v>10910</v>
       </c>
       <c r="W341" s="0">
         <v>59</v>
@@ -21050,7 +21050,7 @@
         <v>17656</v>
       </c>
       <c r="V342" s="0">
-        <v>10934</v>
+        <v>10936</v>
       </c>
       <c r="W342" s="0">
         <v>26</v>
@@ -21115,7 +21115,7 @@
         <v>17695</v>
       </c>
       <c r="V343" s="0">
-        <v>10971</v>
+        <v>10973</v>
       </c>
       <c r="W343" s="0">
         <v>37</v>
@@ -21180,7 +21180,7 @@
         <v>17786</v>
       </c>
       <c r="V344" s="0">
-        <v>11011</v>
+        <v>11013</v>
       </c>
       <c r="W344" s="0">
         <v>40</v>
@@ -21245,7 +21245,7 @@
         <v>17875</v>
       </c>
       <c r="V345" s="0">
-        <v>11047</v>
+        <v>11049</v>
       </c>
       <c r="W345" s="0">
         <v>36</v>
@@ -21310,7 +21310,7 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11081</v>
+        <v>11083</v>
       </c>
       <c r="W346" s="0">
         <v>34</v>
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11108</v>
+        <v>11110</v>
       </c>
       <c r="W347" s="0">
         <v>27</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11141</v>
+        <v>11143</v>
       </c>
       <c r="W348" s="0">
         <v>33</v>
@@ -21505,7 +21505,7 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11172</v>
+        <v>11174</v>
       </c>
       <c r="W349" s="0">
         <v>31</v>
@@ -21570,7 +21570,7 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11198</v>
+        <v>11200</v>
       </c>
       <c r="W350" s="0">
         <v>26</v>
@@ -21635,10 +21635,10 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11228</v>
+        <v>11231</v>
       </c>
       <c r="W351" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row outlineLevel="0" r="352">
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11267</v>
+        <v>11270</v>
       </c>
       <c r="W352" s="0">
         <v>39</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11297</v>
+        <v>11300</v>
       </c>
       <c r="W353" s="0">
         <v>30</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11327</v>
+        <v>11330</v>
       </c>
       <c r="W354" s="0">
         <v>30</v>
@@ -21895,7 +21895,7 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11347</v>
+        <v>11350</v>
       </c>
       <c r="W355" s="0">
         <v>20</v>
@@ -21960,7 +21960,7 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11375</v>
+        <v>11378</v>
       </c>
       <c r="W356" s="0">
         <v>28</v>
@@ -22025,10 +22025,10 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11396</v>
+        <v>11400</v>
       </c>
       <c r="W357" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -22090,7 +22090,7 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11418</v>
+        <v>11422</v>
       </c>
       <c r="W358" s="0">
         <v>22</v>
@@ -22155,7 +22155,7 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11435</v>
+        <v>11439</v>
       </c>
       <c r="W359" s="0">
         <v>17</v>
@@ -22220,10 +22220,10 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11457</v>
+        <v>11462</v>
       </c>
       <c r="W360" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row outlineLevel="0" r="361">
@@ -22285,10 +22285,10 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11468</v>
+        <v>11474</v>
       </c>
       <c r="W361" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="362">
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11480</v>
+        <v>11487</v>
       </c>
       <c r="W362" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,7 +22415,7 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11492</v>
+        <v>11499</v>
       </c>
       <c r="W363" s="0">
         <v>12</v>
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11504</v>
+        <v>11512</v>
       </c>
       <c r="W364" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,10 +22545,10 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11513</v>
+        <v>11522</v>
       </c>
       <c r="W365" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="366">
@@ -22610,7 +22610,7 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11520</v>
+        <v>11529</v>
       </c>
       <c r="W366" s="0">
         <v>7</v>
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11524</v>
+        <v>11536</v>
       </c>
       <c r="W367" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,140 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11525</v>
+        <v>11537</v>
       </c>
       <c r="W368" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="369">
+      <c r="A369" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B369" s="0">
+        <v>782206</v>
+      </c>
+      <c r="C369" s="0">
+        <v>1312</v>
+      </c>
+      <c r="D369" s="0">
+        <v>653905</v>
+      </c>
+      <c r="E369" s="0">
+        <v>852</v>
+      </c>
+      <c r="F369" s="0">
+        <v>128301</v>
+      </c>
+      <c r="G369" s="0">
+        <v>460</v>
+      </c>
+      <c r="H369" s="0">
+        <v>753695</v>
+      </c>
+      <c r="I369" s="0">
+        <v>6119050</v>
+      </c>
+      <c r="J369" s="0">
+        <v>6872745</v>
+      </c>
+      <c r="K369" s="0">
+        <v>16164</v>
+      </c>
+      <c r="L369" s="0">
+        <v>9</v>
+      </c>
+      <c r="M369" s="0">
+        <v>11543</v>
+      </c>
+      <c r="P369" s="0">
+        <v>-16</v>
+      </c>
+      <c r="Q369" s="0">
+        <v>13870</v>
+      </c>
+      <c r="R369" s="0">
+        <v>1319</v>
+      </c>
+      <c r="S369" s="0">
+        <v>756793</v>
+      </c>
+      <c r="T369" s="0">
+        <v>33</v>
+      </c>
+      <c r="U369" s="0">
+        <v>18870</v>
+      </c>
+      <c r="V369" s="0">
+        <v>11538</v>
+      </c>
+      <c r="W369" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="370">
+      <c r="A370" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B370" s="0">
+        <v>783484</v>
+      </c>
+      <c r="C370" s="0">
+        <v>1278</v>
+      </c>
+      <c r="D370" s="0">
+        <v>654636</v>
+      </c>
+      <c r="E370" s="0">
+        <v>731</v>
+      </c>
+      <c r="F370" s="0">
+        <v>128848</v>
+      </c>
+      <c r="G370" s="0">
+        <v>547</v>
+      </c>
+      <c r="H370" s="0">
+        <v>754560</v>
+      </c>
+      <c r="I370" s="0">
+        <v>6132296</v>
+      </c>
+      <c r="J370" s="0">
+        <v>6886856</v>
+      </c>
+      <c r="K370" s="0">
+        <v>14111</v>
+      </c>
+      <c r="L370" s="0">
+        <v>4</v>
+      </c>
+      <c r="M370" s="0">
+        <v>11547</v>
+      </c>
+      <c r="P370" s="0">
+        <v>28</v>
+      </c>
+      <c r="Q370" s="0">
+        <v>13898</v>
+      </c>
+      <c r="R370" s="0">
+        <v>1246</v>
+      </c>
+      <c r="S370" s="0">
+        <v>758039</v>
+      </c>
+      <c r="T370" s="0">
+        <v>15</v>
+      </c>
+      <c r="U370" s="0">
+        <v>18885</v>
+      </c>
+      <c r="V370" s="0">
+        <v>11538</v>
+      </c>
+      <c r="W370" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23175,11 +23305,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3240</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3259</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3240</Url>
-      <Description>HJYU5V3E37X6-122305290-3240</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3259</Url>
+      <Description>HJYU5V3E37X6-122305290-3259</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23202,17 +23332,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141572DF-3B99-44E2-9666-F6B0F14E0B18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931D8580-02E0-423F-A8E3-07B84019F3B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609F483F-67C0-4622-BA2E-33AB3D549ACF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8003150-A50A-4BBE-B08E-EBC7EE353FDE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEB8D0B5-C8EA-4FB0-94E0-64F67D55ED4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE81ECB-5FF8-4AAF-8787-D54579B47D63}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D72C9FDE-863C-4BC4-B5D3-3C9D73A29243}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF230A2-8A87-49DE-BA16-21CFEBBC25FF}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$370</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$371</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W370"/>
+  <dimension ref="A1:W371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22610,10 +22610,10 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11529</v>
+        <v>11530</v>
       </c>
       <c r="W366" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="367">
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11536</v>
+        <v>11540</v>
       </c>
       <c r="W367" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,10 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11537</v>
+        <v>11544</v>
       </c>
       <c r="W368" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="369">
@@ -22805,10 +22805,10 @@
         <v>18870</v>
       </c>
       <c r="V369" s="0">
-        <v>11538</v>
+        <v>11547</v>
       </c>
       <c r="W369" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="370">
@@ -22870,9 +22870,74 @@
         <v>18885</v>
       </c>
       <c r="V370" s="0">
-        <v>11538</v>
+        <v>11547</v>
       </c>
       <c r="W370" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="371">
+      <c r="A371" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B371" s="0">
+        <v>783904</v>
+      </c>
+      <c r="C371" s="0">
+        <v>420</v>
+      </c>
+      <c r="D371" s="0">
+        <v>654949</v>
+      </c>
+      <c r="E371" s="0">
+        <v>313</v>
+      </c>
+      <c r="F371" s="0">
+        <v>128955</v>
+      </c>
+      <c r="G371" s="0">
+        <v>107</v>
+      </c>
+      <c r="H371" s="0">
+        <v>754885</v>
+      </c>
+      <c r="I371" s="0">
+        <v>6136019</v>
+      </c>
+      <c r="J371" s="0">
+        <v>6890904</v>
+      </c>
+      <c r="K371" s="0">
+        <v>4048</v>
+      </c>
+      <c r="L371" s="0">
+        <v>9</v>
+      </c>
+      <c r="M371" s="0">
+        <v>11556</v>
+      </c>
+      <c r="P371" s="0">
+        <v>-575</v>
+      </c>
+      <c r="Q371" s="0">
+        <v>13323</v>
+      </c>
+      <c r="R371" s="0">
+        <v>986</v>
+      </c>
+      <c r="S371" s="0">
+        <v>759025</v>
+      </c>
+      <c r="T371" s="0">
+        <v>22</v>
+      </c>
+      <c r="U371" s="0">
+        <v>18907</v>
+      </c>
+      <c r="V371" s="0">
+        <v>11547</v>
+      </c>
+      <c r="W371" s="0">
         <v>0</v>
       </c>
     </row>
@@ -23305,11 +23370,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3259</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3274</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3259</Url>
-      <Description>HJYU5V3E37X6-122305290-3259</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3274</Url>
+      <Description>HJYU5V3E37X6-122305290-3274</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23332,17 +23397,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{931D8580-02E0-423F-A8E3-07B84019F3B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{608EB148-8A49-45A5-B5AA-60A557E672C4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8003150-A50A-4BBE-B08E-EBC7EE353FDE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BDC5CA7-BE3D-434C-A25B-D0A662E9E50E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DE81ECB-5FF8-4AAF-8787-D54579B47D63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32783EB-1105-4800-9952-BA60FA6853B9}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF230A2-8A87-49DE-BA16-21CFEBBC25FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99930FB-69DF-47E3-804A-E21FFCF71EB2}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$371</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$372</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W371"/>
+  <dimension ref="A1:W372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16565,10 +16565,10 @@
         <v>12096</v>
       </c>
       <c r="V273" s="0">
-        <v>5237</v>
+        <v>5238</v>
       </c>
       <c r="W273" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row outlineLevel="0" r="274">
@@ -16633,7 +16633,7 @@
         <v>5306</v>
       </c>
       <c r="W274" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row outlineLevel="0" r="275">
@@ -21310,10 +21310,10 @@
         <v>17920</v>
       </c>
       <c r="V346" s="0">
-        <v>11083</v>
+        <v>11084</v>
       </c>
       <c r="W346" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -21375,7 +21375,7 @@
         <v>17969</v>
       </c>
       <c r="V347" s="0">
-        <v>11110</v>
+        <v>11111</v>
       </c>
       <c r="W347" s="0">
         <v>27</v>
@@ -21440,7 +21440,7 @@
         <v>17997</v>
       </c>
       <c r="V348" s="0">
-        <v>11143</v>
+        <v>11144</v>
       </c>
       <c r="W348" s="0">
         <v>33</v>
@@ -21505,7 +21505,7 @@
         <v>18017</v>
       </c>
       <c r="V349" s="0">
-        <v>11174</v>
+        <v>11175</v>
       </c>
       <c r="W349" s="0">
         <v>31</v>
@@ -21570,10 +21570,10 @@
         <v>18027</v>
       </c>
       <c r="V350" s="0">
-        <v>11200</v>
+        <v>11202</v>
       </c>
       <c r="W350" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="351">
@@ -21635,7 +21635,7 @@
         <v>18063</v>
       </c>
       <c r="V351" s="0">
-        <v>11231</v>
+        <v>11233</v>
       </c>
       <c r="W351" s="0">
         <v>31</v>
@@ -21700,7 +21700,7 @@
         <v>18120</v>
       </c>
       <c r="V352" s="0">
-        <v>11270</v>
+        <v>11272</v>
       </c>
       <c r="W352" s="0">
         <v>39</v>
@@ -21765,7 +21765,7 @@
         <v>18175</v>
       </c>
       <c r="V353" s="0">
-        <v>11300</v>
+        <v>11302</v>
       </c>
       <c r="W353" s="0">
         <v>30</v>
@@ -21830,7 +21830,7 @@
         <v>18235</v>
       </c>
       <c r="V354" s="0">
-        <v>11330</v>
+        <v>11332</v>
       </c>
       <c r="W354" s="0">
         <v>30</v>
@@ -21895,7 +21895,7 @@
         <v>18267</v>
       </c>
       <c r="V355" s="0">
-        <v>11350</v>
+        <v>11352</v>
       </c>
       <c r="W355" s="0">
         <v>20</v>
@@ -21960,10 +21960,10 @@
         <v>18284</v>
       </c>
       <c r="V356" s="0">
-        <v>11378</v>
+        <v>11381</v>
       </c>
       <c r="W356" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
@@ -22025,7 +22025,7 @@
         <v>18311</v>
       </c>
       <c r="V357" s="0">
-        <v>11400</v>
+        <v>11403</v>
       </c>
       <c r="W357" s="0">
         <v>22</v>
@@ -22090,7 +22090,7 @@
         <v>18363</v>
       </c>
       <c r="V358" s="0">
-        <v>11422</v>
+        <v>11425</v>
       </c>
       <c r="W358" s="0">
         <v>22</v>
@@ -22155,7 +22155,7 @@
         <v>18430</v>
       </c>
       <c r="V359" s="0">
-        <v>11439</v>
+        <v>11442</v>
       </c>
       <c r="W359" s="0">
         <v>17</v>
@@ -22220,7 +22220,7 @@
         <v>18506</v>
       </c>
       <c r="V360" s="0">
-        <v>11462</v>
+        <v>11465</v>
       </c>
       <c r="W360" s="0">
         <v>23</v>
@@ -22285,7 +22285,7 @@
         <v>18553</v>
       </c>
       <c r="V361" s="0">
-        <v>11474</v>
+        <v>11477</v>
       </c>
       <c r="W361" s="0">
         <v>12</v>
@@ -22350,7 +22350,7 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11487</v>
+        <v>11490</v>
       </c>
       <c r="W362" s="0">
         <v>13</v>
@@ -22415,7 +22415,7 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11499</v>
+        <v>11502</v>
       </c>
       <c r="W363" s="0">
         <v>12</v>
@@ -22480,7 +22480,7 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11512</v>
+        <v>11515</v>
       </c>
       <c r="W364" s="0">
         <v>13</v>
@@ -22545,10 +22545,10 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11522</v>
+        <v>11526</v>
       </c>
       <c r="W365" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="366">
@@ -22610,10 +22610,10 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11530</v>
+        <v>11536</v>
       </c>
       <c r="W366" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="367">
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11540</v>
+        <v>11547</v>
       </c>
       <c r="W367" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,10 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11544</v>
+        <v>11554</v>
       </c>
       <c r="W368" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row outlineLevel="0" r="369">
@@ -22805,10 +22805,10 @@
         <v>18870</v>
       </c>
       <c r="V369" s="0">
-        <v>11547</v>
+        <v>11563</v>
       </c>
       <c r="W369" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="370">
@@ -22870,10 +22870,10 @@
         <v>18885</v>
       </c>
       <c r="V370" s="0">
-        <v>11547</v>
+        <v>11573</v>
       </c>
       <c r="W370" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="371">
@@ -22935,9 +22935,74 @@
         <v>18907</v>
       </c>
       <c r="V371" s="0">
-        <v>11547</v>
+        <v>11578</v>
       </c>
       <c r="W371" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="372">
+      <c r="A372" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B372" s="0">
+        <v>785242</v>
+      </c>
+      <c r="C372" s="0">
+        <v>1338</v>
+      </c>
+      <c r="D372" s="0">
+        <v>655788</v>
+      </c>
+      <c r="E372" s="0">
+        <v>839</v>
+      </c>
+      <c r="F372" s="0">
+        <v>129454</v>
+      </c>
+      <c r="G372" s="0">
+        <v>499</v>
+      </c>
+      <c r="H372" s="0">
+        <v>755827</v>
+      </c>
+      <c r="I372" s="0">
+        <v>6148001</v>
+      </c>
+      <c r="J372" s="0">
+        <v>6903828</v>
+      </c>
+      <c r="K372" s="0">
+        <v>12924</v>
+      </c>
+      <c r="L372" s="0">
+        <v>32</v>
+      </c>
+      <c r="M372" s="0">
+        <v>11588</v>
+      </c>
+      <c r="P372" s="0">
+        <v>-579</v>
+      </c>
+      <c r="Q372" s="0">
+        <v>12744</v>
+      </c>
+      <c r="R372" s="0">
+        <v>1885</v>
+      </c>
+      <c r="S372" s="0">
+        <v>760910</v>
+      </c>
+      <c r="T372" s="0">
+        <v>48</v>
+      </c>
+      <c r="U372" s="0">
+        <v>18955</v>
+      </c>
+      <c r="V372" s="0">
+        <v>11578</v>
+      </c>
+      <c r="W372" s="0">
         <v>0</v>
       </c>
     </row>
@@ -23370,11 +23435,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3274</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3284</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3274</Url>
-      <Description>HJYU5V3E37X6-122305290-3274</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3284</Url>
+      <Description>HJYU5V3E37X6-122305290-3284</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23397,17 +23462,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{608EB148-8A49-45A5-B5AA-60A557E672C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE612107-68B7-43B2-99F3-B1C5D474A373}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BDC5CA7-BE3D-434C-A25B-D0A662E9E50E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A4103-2D6D-4BC3-9526-5C7F9470EF7D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B32783EB-1105-4800-9952-BA60FA6853B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBDE9008-1BEB-4875-AD40-2873EA7AA762}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99930FB-69DF-47E3-804A-E21FFCF71EB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FC29FC-6A54-4B14-BB0A-10EB580B0043}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$372</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$373</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W372"/>
+  <dimension ref="A1:W373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22480,10 +22480,10 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11515</v>
+        <v>11516</v>
       </c>
       <c r="W364" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="365">
@@ -22545,7 +22545,7 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11526</v>
+        <v>11527</v>
       </c>
       <c r="W365" s="0">
         <v>11</v>
@@ -22613,7 +22613,7 @@
         <v>11536</v>
       </c>
       <c r="W366" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="367">
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11547</v>
+        <v>11548</v>
       </c>
       <c r="W367" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,10 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11554</v>
+        <v>11557</v>
       </c>
       <c r="W368" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="369">
@@ -22805,10 +22805,10 @@
         <v>18870</v>
       </c>
       <c r="V369" s="0">
-        <v>11563</v>
+        <v>11570</v>
       </c>
       <c r="W369" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="370">
@@ -22870,10 +22870,10 @@
         <v>18885</v>
       </c>
       <c r="V370" s="0">
-        <v>11573</v>
+        <v>11581</v>
       </c>
       <c r="W370" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="371">
@@ -22935,10 +22935,10 @@
         <v>18907</v>
       </c>
       <c r="V371" s="0">
-        <v>11578</v>
+        <v>11590</v>
       </c>
       <c r="W371" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row outlineLevel="0" r="372">
@@ -23000,9 +23000,74 @@
         <v>18955</v>
       </c>
       <c r="V372" s="0">
-        <v>11578</v>
+        <v>11596</v>
       </c>
       <c r="W372" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="373">
+      <c r="A373" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B373" s="0">
+        <v>786597</v>
+      </c>
+      <c r="C373" s="0">
+        <v>1355</v>
+      </c>
+      <c r="D373" s="0">
+        <v>656682</v>
+      </c>
+      <c r="E373" s="0">
+        <v>894</v>
+      </c>
+      <c r="F373" s="0">
+        <v>129915</v>
+      </c>
+      <c r="G373" s="0">
+        <v>461</v>
+      </c>
+      <c r="H373" s="0">
+        <v>756844</v>
+      </c>
+      <c r="I373" s="0">
+        <v>6166598</v>
+      </c>
+      <c r="J373" s="0">
+        <v>6923442</v>
+      </c>
+      <c r="K373" s="0">
+        <v>19614</v>
+      </c>
+      <c r="L373" s="0">
+        <v>18</v>
+      </c>
+      <c r="M373" s="0">
+        <v>11606</v>
+      </c>
+      <c r="P373" s="0">
+        <v>-217</v>
+      </c>
+      <c r="Q373" s="0">
+        <v>12527</v>
+      </c>
+      <c r="R373" s="0">
+        <v>1554</v>
+      </c>
+      <c r="S373" s="0">
+        <v>762464</v>
+      </c>
+      <c r="T373" s="0">
+        <v>67</v>
+      </c>
+      <c r="U373" s="0">
+        <v>19022</v>
+      </c>
+      <c r="V373" s="0">
+        <v>11596</v>
+      </c>
+      <c r="W373" s="0">
         <v>0</v>
       </c>
     </row>
@@ -23435,11 +23500,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3284</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3295</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3284</Url>
-      <Description>HJYU5V3E37X6-122305290-3284</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3295</Url>
+      <Description>HJYU5V3E37X6-122305290-3295</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23462,17 +23527,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE612107-68B7-43B2-99F3-B1C5D474A373}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51371A75-727F-4AC2-A92C-1047922A8A2E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B1A4103-2D6D-4BC3-9526-5C7F9470EF7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847053C7-4A89-4446-917E-18385185AA11}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBDE9008-1BEB-4875-AD40-2873EA7AA762}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82720557-B272-40BB-8ADA-D5B2E66BB572}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FC29FC-6A54-4B14-BB0A-10EB580B0043}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45917B6-223C-46AE-B32B-43498F93320B}"/>
 </file>
--- a/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
+++ b/data_tndoh/Public-Dataset-Daily-Case-Info.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_DAILY_CASE_INFO_PUBLIC"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$373</definedName>
+    <definedName name="ALL_DAILY_CASE_INFO_PUBLIC">'ALL_DAILY_CASE_INFO_PUBLIC'!$A$1:$W$374</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W373"/>
+  <dimension ref="A1:W374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22350,10 +22350,10 @@
         <v>18586</v>
       </c>
       <c r="V362" s="0">
-        <v>11490</v>
+        <v>11491</v>
       </c>
       <c r="W362" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="363">
@@ -22415,7 +22415,7 @@
         <v>18605</v>
       </c>
       <c r="V363" s="0">
-        <v>11502</v>
+        <v>11503</v>
       </c>
       <c r="W363" s="0">
         <v>12</v>
@@ -22480,7 +22480,7 @@
         <v>18620</v>
       </c>
       <c r="V364" s="0">
-        <v>11516</v>
+        <v>11517</v>
       </c>
       <c r="W364" s="0">
         <v>14</v>
@@ -22545,7 +22545,7 @@
         <v>18679</v>
       </c>
       <c r="V365" s="0">
-        <v>11527</v>
+        <v>11528</v>
       </c>
       <c r="W365" s="0">
         <v>11</v>
@@ -22610,10 +22610,10 @@
         <v>18742</v>
       </c>
       <c r="V366" s="0">
-        <v>11536</v>
+        <v>11539</v>
       </c>
       <c r="W366" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="367">
@@ -22675,10 +22675,10 @@
         <v>18779</v>
       </c>
       <c r="V367" s="0">
-        <v>11548</v>
+        <v>11552</v>
       </c>
       <c r="W367" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
@@ -22740,10 +22740,10 @@
         <v>18837</v>
       </c>
       <c r="V368" s="0">
-        <v>11557</v>
+        <v>11562</v>
       </c>
       <c r="W368" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="369">
@@ -22805,7 +22805,7 @@
         <v>18870</v>
       </c>
       <c r="V369" s="0">
-        <v>11570</v>
+        <v>11575</v>
       </c>
       <c r="W369" s="0">
         <v>13</v>
@@ -22870,10 +22870,10 @@
         <v>18885</v>
       </c>
       <c r="V370" s="0">
-        <v>11581</v>
+        <v>11588</v>
       </c>
       <c r="W370" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="371">
@@ -22935,10 +22935,10 @@
         <v>18907</v>
       </c>
       <c r="V371" s="0">
-        <v>11590</v>
+        <v>11596</v>
       </c>
       <c r="W371" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="372">
@@ -23000,10 +23000,10 @@
         <v>18955</v>
       </c>
       <c r="V372" s="0">
-        <v>11596</v>
+        <v>11607</v>
       </c>
       <c r="W372" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="373">
@@ -23065,10 +23065,75 @@
         <v>19022</v>
       </c>
       <c r="V373" s="0">
-        <v>11596</v>
+        <v>11612</v>
       </c>
       <c r="W373" s="0">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="374">
+      <c r="A374" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B374" s="0">
+        <v>788109</v>
+      </c>
+      <c r="C374" s="0">
+        <v>1512</v>
+      </c>
+      <c r="D374" s="0">
+        <v>657721</v>
+      </c>
+      <c r="E374" s="0">
+        <v>1039</v>
+      </c>
+      <c r="F374" s="0">
+        <v>130388</v>
+      </c>
+      <c r="G374" s="0">
+        <v>473</v>
+      </c>
+      <c r="H374" s="0">
+        <v>758029</v>
+      </c>
+      <c r="I374" s="0">
+        <v>6186371</v>
+      </c>
+      <c r="J374" s="0">
+        <v>6944400</v>
+      </c>
+      <c r="K374" s="0">
+        <v>20958</v>
+      </c>
+      <c r="L374" s="0">
+        <v>17</v>
+      </c>
+      <c r="M374" s="0">
+        <v>11623</v>
+      </c>
+      <c r="P374" s="0">
+        <v>-11</v>
+      </c>
+      <c r="Q374" s="0">
+        <v>12516</v>
+      </c>
+      <c r="R374" s="0">
+        <v>1506</v>
+      </c>
+      <c r="S374" s="0">
+        <v>763970</v>
+      </c>
+      <c r="T374" s="0">
+        <v>42</v>
+      </c>
+      <c r="U374" s="0">
+        <v>19064</v>
+      </c>
+      <c r="V374" s="0">
+        <v>11613</v>
+      </c>
+      <c r="W374" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23500,11 +23565,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3295</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-3306</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3295</Url>
-      <Description>HJYU5V3E37X6-122305290-3295</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-3306</Url>
+      <Description>HJYU5V3E37X6-122305290-3306</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -23527,17 +23592,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51371A75-727F-4AC2-A92C-1047922A8A2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F25C933E-0B2F-4417-9341-6DE7449D6D21}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{847053C7-4A89-4446-917E-18385185AA11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC32A61A-F366-473E-B9C2-BED677FE160E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82720557-B272-40BB-8ADA-D5B2E66BB572}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9E4D1B-08C3-4E79-9AF7-042F98594F26}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E45917B6-223C-46AE-B32B-43498F93320B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C782453-082C-4C4B-A2D0-05912D97B188}"/>
 </file>